--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,38 +434,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Perfumes</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Images</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1er Acorde</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2do Acorde</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3er Acorde</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AB KING OF SEDUCTION ABSOLUTE EDT 100ML CABALLERO</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://fraguru.com/mdimg/perfume/375x500.31525.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AB KING OF SEDUCTION EDT 200ML CABALLERO</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://fraguru.com/mdimg/perfume/375x500.31525.jpg</t>
+          <t>AB KING 2 PIEZAS EDT 100ML CABALLERO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://fimgs.net/mdimg/perfume/375x500.54004.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authentic Man by Abercrombie &amp; Fitch is a Citrus Aromatic fragrance for men. Authentic Man was launched in 2019. The nose behind this fragrance is Clement Gavarry. Top notes are Grapefruit, Bergamot and Pink Pepper; middle notes are Ginger, Sage and Lavender; base notes are Clearwood, Suede and Moss. </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>citrus</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>woody</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>aromatic</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Perfumes</t>
+          <t>Image</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Image</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>1er Acorde</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1er Acorde</t>
+          <t>2do Acorde</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2do Acorde</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>3er Acorde</t>
         </is>
@@ -471,32 +466,4541 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AB KING 2 PIEZAS EDT 100ML CABALLERO</t>
+          <t>https://i0.wp.com/www.mercadoseguroweb.com/wp-content/uploads/2022/02/ANTONIO-BANDERAS-KING-OF-SEDUCTION-200ML_Mesa-de-trabajo-1.jpg?fit=1090%2C1080&amp;ssl=1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://fimgs.net/mdimg/perfume/375x500.54004.jpg</t>
+          <t xml:space="preserve">King of Seduction de Antonio Banderas es una fragancia de la familia olfativa Amaderada Aromática para Hombres. King of Seduction se lanzó en 2014. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son piña, bergamota, melón, toronja (pomelo) y manzana verde; las Notas de Corazón son notas marinas, jazmín, cardamomo y neroli; las Notas de Fondo son vetiver, almizcle blanco, gamuza, cedro y ámbar. </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Authentic Man by Abercrombie &amp; Fitch is a Citrus Aromatic fragrance for men. Authentic Man was launched in 2019. The nose behind this fragrance is Clement Gavarry. Top notes are Grapefruit, Bergamot and Pink Pepper; middle notes are Ginger, Sage and Lavender; base notes are Clearwood, Suede and Moss. </t>
+          <t>aromático</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>citrus</t>
+          <t>cítrico</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31525.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King of Seduction Absolute de Antonio Banderas es una fragancia de la familia olfativa Amaderada Aromática para Hombres. King of Seduction Absolute se lanzó en 2015. Las Notas de Salida son toronja (pomelo), toronja (pomelo), ajenjo (absenta) y almendras verdes; las Notas de Corazón son notas marinas, lavanda y cardamomo; las Notas de Fondo son cuero, musgo de roble y vetiver. </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://i0.wp.com/www.mercadoseguroweb.com/wp-content/uploads/2022/02/ANTONIO-BANDERAS-KING-OF-SEDUCTION-200ML_Mesa-de-trabajo-1.jpg?fit=1090%2C1080&amp;ssl=1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King of Seduction de Antonio Banderas es una fragancia de la familia olfativa Amaderada Aromática para Hombres. King of Seduction se lanzó en 2014. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son piña, bergamota, melón, toronja (pomelo) y manzana verde; las Notas de Corazón son notas marinas, jazmín, cardamomo y neroli; las Notas de Fondo son vetiver, almizcle blanco, gamuza, cedro y ámbar. </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.51087.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Power of Seduction de Antonio Banderas es una fragancia de la familia olfativa Aromática Verde para Hombres. Power of Seduction se lanzó en 2018. Las Notas de Salida son manzana y bergamota; las Notas de Corazón son lavanda, abrótano y esclarea; las Notas de Fondo son notas amaderadas, musgo, haba tonka, ámbar y pachulí. </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.51087.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Power of Seduction de Antonio Banderas es una fragancia de la familia olfativa Aromática Verde para Hombres. Power of Seduction se lanzó en 2018. Las Notas de Salida son manzana y bergamota; las Notas de Corazón son lavanda, abrótano y esclarea; las Notas de Fondo son notas amaderadas, musgo, haba tonka, ámbar y pachulí.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.64487.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Icon de Antonio Banderas es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. The Icon se lanzó en 2020. Las Notas de Salida son toronja (pomelo) y pimienta negra; las Notas de Corazón son lavanda y salvia; las Notas de Fondo son musgo de roble y sándalo. </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.64487.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Icon de Antonio Banderas es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. The Icon se lanzó en 2020. Las Notas de Salida son toronja (pomelo) y pimienta negra; las Notas de Corazón son lavanda y salvia; las Notas de Fondo son musgo de roble y sándalo. </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.54005.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authentic Woman de Abercrombie &amp; Fitch es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Authentic Woman se lanzó en 2019. La Nariz detrás de esta fragrancia es Clement Gavarry. Las Notas de Salida son pera, grosella roja y mandarina; las Notas de Corazón son nectarina, magnolia y lirio de los valles (muguete); las Notas de Fondo son almizcle ambreta, cedro y sándalo. </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.61859.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Authentic Night Femme de Abercrombie &amp; Fitch es una fragancia de la familia olfativa Chipre Floral para Mujeres. Authentic Night Femme se lanzó en 2020. Las Notas de Salida son grosellas negras, manzana y pimienta rosa; las Notas de Corazón son nardos, jazmín sambac (sampaguita) y magnolia; las Notas de Fondo son pachulí, sándalo y cedro. </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3508.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fierce de Abercrombie &amp; Fitch es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Fierce se lanzó en 2002. Fierce fue creada por Christophe Laudamiel y Bruno Jovanovic. Las Notas de Salida son abeto, limón (lima ácida), naranja, cardamomo, petit grain y notas marinas; las Notas de Corazón son romero, lirio de los valles (muguete), jazmín, rosa y salvia; las Notas de Fondo son almizcle, vetiver, musgo de roble, palo de rosa de Brasil y sándalo. </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.37753.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First Instinct de Abercrombie &amp; Fitch es una fragancia de la familia olfativa Aromática Fougère para Hombres. First Instinct se lanzó en 2016. La Nariz detrás de esta fragrancia es Phillippe Romano. Las Notas de Salida son melón, agua tónica y ginebra; las Notas de Corazón son hojas de violeta, pimienta de Sichuan y cítricos; las Notas de Fondo son almizcle, gamuza y ámbar. </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31424.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonia Club de Acqua di Parma es una fragancia de la familia olfativa Amaderada Aromática para Hombres y Mujeres. Colonia Club se lanzó en 2015. Las Notas de Salida son menta, bergamota, neroli, limón (lima ácida), petit grain y mandarina; las Notas de Corazón son lavanda, geranio y gálbano; las Notas de Fondo son vetiver de Haití, ámbar gris y almizcle. </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1681.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acqua di Parma Colonia de Acqua di Parma es una fragancia de la familia olfativa Cítrica para Hombres y Mujeres. Acqua di Parma Colonia se lanzó en 1916. </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1684.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonia Intensa de Acqua di Parma es una fragancia de la familia olfativa Amaderada para Hombres. Colonia Intensa se lanzó en 2007. Colonia Intensa fue creada por Alberto Morillas y François Demachy. Las Notas de Salida son bergamota de Calabria, jengibre, cardamomo y limón siciliano (lima siciliana); las Notas de Corazón son neroli, abrótano y mirto; las Notas de Fondo son cuero, cedro, benjuí, almizcle y pachulí. </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://cdn.fragrancenet.com/images/photos/300x300/429113.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>El extraordinario aroma de Amber Oud es una fragancia clásica para mujeres y hombres de la casa de diseño Al Haramain. Al principio se perciben aromas cautivadores de limón, bergamota, hojas de madera de cedro y romero. Las notas de madera de gaiac, madera de cedro y especias son encantadoras en el corazón, mientras que las notas de almizcle, bálsamo y ámbar son extravagantes en la base.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>madera de cedro</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>almizcle</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>bálsamo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.73208.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amber Oud Ruby Edition de Al Haramain Perfumes es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Amber Oud Ruby Edition se lanzó en 2022. Las Notas de Salida son azafrán y almendra amarga; las Notas de Corazón son jazmín egipcio y cedro; las Notas de Fondo son ámbar gris, notas amaderadas y almizcle. </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.55791.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amber Oud Tobacco Edition de Al Haramain Perfumes es una fragancia de la familia olfativa Ámbar Especiada para Hombres y Mujeres. Amber Oud Tobacco Edition se lanzó en 2019. Las Notas de Salida son hojas de tabaco, canela, pimienta negra y jengibre; las Notas de Corazón son vainilla, clavos de olor, anís estrellado, cacao, haba tonka y incienso; las Notas de Fondo son tabaco, frutos secos y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.73210.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amber Oud White Edition de Al Haramain Perfumes es una fragancia de la familia olfativa Chipre Floral para Hombres y Mujeres. Esta fragrancia es nueva. Amber Oud White Edition se lanzó en 2022. Las Notas de Salida son naranja y bergamota; las Notas de Corazón son jazmín, rosa, fresia y ciclamen (violeta persa); las Notas de Fondo son pachulí, almizcle, vainilla y vetiver. </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>pachulí</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78008.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melodie de Orientica de Orientica es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Melodie de Orientica se lanzó en 2022. Las Notas de Salida son petit grain, neroli, bergamota y Frutas rojas; las Notas de Corazón son flor de azahar del naranjo, cardamomo, canela, jazmín y rosa; las Notas de Fondo son malvavisco (bombón), vainilla, almizcle y praliné. </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78006.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arte Bellisimo Exotic de Orientica es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Arte Bellisimo Exotic se lanzó en 2022. </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78007.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arte Bellisimo Romantic de Orientica es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Arte Bellisimo Romantic se lanzó en 2022. Las Notas de Salida son nuez moscada, bergamota, toronja (pomelo) y flor del duraznero (flor del melocotonero); las Notas de Corazón son rosa, peonía rosa y violeta; las Notas de Fondo son almizcle, vetiver, benjuí y ámbar. </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.76887.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleur de Orientica de Orientica es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Fleur de Orientica se lanzó en 2022. Las Notas de Salida son naranja tangerina, Flores de agua y bergamota; las Notas de Corazón son Té de frutas y durazno blanco (melocotón blanco); las Notas de Fondo son almizcle, haba tonka y rosa blanca. </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.69360.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperial Gold de Orientica es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Imperial Gold se lanzó en 2021. Las Notas de Salida son cítricos, bergamota y lima (limón verde); las Notas de Corazón son hojas de violeta, Té del jazmín y lavanda; las Notas de Fondo son sándalo, ámbar gris y almizcle. </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.69364.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amber Rouge de Orientica es una fragancia de la familia olfativa Amaderada Especiada para Hombres y Mujeres. Amber Rouge se lanzó en 2021. Las Notas de Salida son azafrán y jazmín; las Notas de Corazón son Amberwood y ámbar gris; las Notas de Fondo son cedro y resina de abeto. </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.69362.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Amber de Orientica es una fragancia de la familia olfativa Ámbar Vainilla para Hombres y Mujeres. Royal Amber se lanzó en 2021. Las Notas de Salida son bergamota y notas verdes; las Notas de Corazón son notas dulces, ámbar, melón y piña; las Notas de Fondo son notas amaderadas, almizcle y vainilla. </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78001.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Bleu de Orientica es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Royal Bleu se lanzó en 2022. Las Notas de Salida son manzana verde, lavanda, pimienta, bergamota y mandarina; las Notas de Corazón son cardamomo, violeta, jazmín y geranio; las Notas de Fondo son sándalo, madera de gaiac, pachulí, vainilla y almizcle. </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.75641.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Velvet Gold de Orientica es una fragancia de la familia olfativa Floral para Mujeres. Esta fragrancia es nueva. Velvet Gold se lanzó en 2022. Las Notas de Salida son pimienta rosa, caramelo, violeta y bergamota; las Notas de Corazón son pachulí, rosa y notas atalcadas; las Notas de Fondo son almizcle, vainilla y Notas de animal. </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>caramelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78036.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xclusif Oud Bleu de Orientica es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Xclusif Oud Bleu se lanzó en 2022. Las Notas de Salida son bergamota, lavanda, manzana verde, mandarina y pimienta; las Notas de Corazón son violeta, jazmín, geranio y cardamomo; las Notas de Fondo son pachulí, madera de gaiac, sándalo, vainilla y almizcle. </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78039.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xclusif Oud Classic de Orientica es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Xclusif Oud Classic se lanzó en 2022. Las Notas de Salida son bergamota y notas verdes; las Notas de Corazón son melón, piña y Acuerdo goloso; las Notas de Fondo son notas amaderadas, vainilla y almizcle. </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78037.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xclusif Oud Emerald de Orientica es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Xclusif Oud Emerald se lanzó en 2022. Las Notas de Salida son gálbano, bergamota, jengibre y flor del mandarino; las Notas de Corazón son hoja de laurel, jazmín y menta; las Notas de Fondo son musgo de roble, sándalo, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://cdn2.jomashop.com/media/catalog/product/cache/fde19e4197824625333be074956e7640/o/r/orientica-xo-xclusif-oud-rouge-edp-spray-20-oz-fragrances-6297001158043.jpg?width=546&amp;height=546</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Azahar, Ciprés, Lavanda, Azafrán. Notas de corazón: naranja, especiado, cedro, musgo de roble.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tonka</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Amaderado</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78038.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xclusif Oud Sport de Orientica es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Xclusif Oud Sport se lanzó en 2022. Las Notas de Salida son lavanda, ciprés, azafrán y flor de azahar del naranjo; las Notas de Corazón son especias, cedro, musgo de roble y naranja; las Notas de Fondo son ámbar, haba tonka, jazmín y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.53636.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portfolio Floral Sculpture de Al Haramain Perfumes es una fragancia de la familia olfativa Ámbar Floral para Hombres y Mujeres. Portfolio Floral Sculpture se lanzó en 2019. Las Notas de Salida son clavel, peonía y bergamota; las Notas de Corazón son rosa y pachulí; las Notas de Fondo son ámbar, ámbar gris, almizcle y benjuí. </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.53265.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portfolio Neroli Canvas de Al Haramain Perfumes es una fragancia de la familia olfativa Almizcle Floral Amaderado para Hombres y Mujeres. Portfolio Neroli Canvas se lanzó en 2018. Las Notas de Salida son bergamota, limón (lima ácida) y petit grain; las Notas de Corazón son neroli y flor de azahar del naranjo; las Notas de Fondo son almizcle, ámbar y cedro. </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78009.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosé de Orientica de Orientica es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Rosé de Orientica se lanzó en 2022. Las Notas de Salida son rosa, almizcle y notas florales; las Notas de Corazón son ámbar gris, flor del duraznero (flor del melocotonero) y agujas de pino; las Notas de Fondo son ámbar, almizcle y Madera seca. </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.5919.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Animale de Animale es una fragancia de la familia olfativa Chipre para Mujeres. Animale se lanzó en 1987. Las Notas de Salida son cilantro, palo de rosa de Brasil, jacinto, notas verdes, bergamota y neroli; las Notas de Corazón son miel, rosa, clavel, ylang-ylang, jazmín, raíz de lirio y lirio de los valles (muguete); las Notas de Fondo son musgo de roble, algalia (civet), pachulí, vetiver, almizcle y coco. </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>terrosos</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.113.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aramis de Aramis es una fragancia de la familia olfativa Amaderada Chipre para Hombres. Aramis se lanzó en 1966. La Nariz detrás de esta fragrancia es Bernard Chant. Las Notas de Salida son aldehídos, mirra, abrótano, trébol blanco, tomillo, bergamota y gardenia; las Notas de Corazón son pachulí, salvia, jazmín, cardamomo y raíz de lirio; las Notas de Fondo son cuero, musgo de roble, almizcle, vetiver, sándalo, ámbar y coco. </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>terrosos</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31661.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ari de Ariana Grande es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Ari se lanzó en 2015. Las Notas de Salida son frambuesa, pera y toronja (pomelo); las Notas de Corazón son orquídea de vainilla, rosa y lirio de los valles (muguete); las Notas de Fondo son malvavisco (bombón), almizcle y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31661.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ari de Ariana Grande es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Ari se lanzó en 2015. Las Notas de Salida son frambuesa, pera y toronja (pomelo); las Notas de Corazón son orquídea de vainilla, rosa y lirio de los valles (muguete); las Notas de Fondo son malvavisco (bombón), almizcle y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.68664.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">God Is A Woman de Ariana Grande es una fragancia de la familia olfativa Ámbar Floral para Mujeres. God Is A Woman se lanzó en 2021. La Nariz detrás de esta fragrancia es Jérôme Epinette. Las Notas de Salida son pera y almizcle ambreta; las Notas de Corazón son raíz de lirio y rosa turca; las Notas de Fondo son vainilla de Madagascar y sándalo. </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78474.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club de Nuit White Imperiale de Armaf es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Club de Nuit White Imperiale se lanzó en 2022. Las Notas de Salida son lichi, nuez moscada y bergamota; las Notas de Corazón son rosa turca, vainilla, almizcle y peonía; las Notas de Fondo son vainilla, cachemira, incienso y cedro. </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.50329.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eternia Women de Armaf es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Las Notas de Salida son naranja amarga, flor de azahar del naranjo y limón (lima ácida); las Notas de Corazón son almendra, geranio y rosa; las Notas de Fondo son vainilla, haba tonka y sándalo. </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.83138.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venetian Girl From Venice With Love de Armaf es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Venetian Girl From Venice With Love se lanzó en 2023. Las Notas de Salida son bergamota, lichi y pera; las Notas de Corazón son notas florales, peonía, rosa y lirio de los valles (muguete); las Notas de Fondo son vetiver y almizcle. </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.82031.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venetian Girl Edition Rogue de Armaf es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Venetian Girl Edition Rogue se lanzó en 2023. Las Notas de Salida son bergamota, lichi, ruibarbo y pera; las Notas de Corazón son rosa, lirio de los valles (muguete), peonía y notas florales; las Notas de Fondo son almizcle, notas amaderadas y vetiver. </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.77863.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venetian Gold de Armaf es una fragancia de la familia olfativa para Hombres y Mujeres. Esta fragrancia es nueva. Venetian Gold se lanzó en 2022. Las Notas de Salida son maracuyá (fruta de la pasión), rosa y bergamota; las Notas de Corazón son notas afrutadas, tomillo y Hojas de cedro; las Notas de Fondo son cachemira, pachulí, almizcle y sándalo. </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.410.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acqua di Gio de Giorgio Armani es una fragancia de la familia olfativa Aromática Acuática para Hombres. Acqua di Gio se lanzó en 1996. Acqua di Gio fue creada por Alberto Morillas, Annick Menardo y Christian Dussoulier. Las Notas de Salida son lima (limón verde), limón (lima ácida), bergamota, jazmín, naranja, mandarina y neroli; las Notas de Corazón son notas marinas, jazmín, calone, durazno (melocotón), fresia, romero, jacinto, ciclamen (violeta persa), violeta, cilantro, nuez moscada, rosa y reseda (miñoneta); las Notas de Fondo son almizcle blanco, cedro, musgo de roble, pachulí y ámbar. </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.29727.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acqua di Giò Profumo de Giorgio Armani es una fragancia de la familia olfativa Aromática Acuática para Hombres. Acqua di Giò Profumo se lanzó en 2015. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son notas marinas y bergamota; las Notas de Corazón son romero, salvia y geranio; las Notas de Fondo son incienso y pachulí. </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.8442.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acqua di Gioia de Giorgio Armani es una fragancia de la familia olfativa Floral Acuática para Mujeres. Acqua di Gioia se lanzó en 2010. Acqua di Gioia fue creada por Loc Dong, Anne Flipo y Dominique Ropion. Las Notas de Salida son limón de Amalfi (lima de Amalfi) y menta; la Nota de Corazón es jazmín de agua; las Notas de Fondo son cedro de Virginia, ládano francés y azúcar moreno. </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.413.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armani Code for Women de Giorgio Armani es una fragancia de la familia olfativa Floral para Mujeres. Armani Code for Women se lanzó en 2006. Armani Code for Women fue creada por Carlos Benaim, Dominique Ropion y Olivier Polge. Las Notas de Salida son naranja italiana, jazmín y naranja amarga; las Notas de Corazón son jazmín, flor de azahar del naranjo y jengibre; las Notas de Fondo son miel, vainilla y sándalo. </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.412.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Armani Code de Giorgio Armani es una fragancia de la familia olfativa Ámbar Especiada para Hombres. Armani Code se lanzó en 2004. La Nariz detrás de esta fragrancia es Antoine Lie. Las Notas de Salida son limón (lima ácida) y bergamota; las Notas de Corazón son anís estrellado, flor del olivo y madera de gaiac; las Notas de Fondo son cuero, haba tonka y tabaco. Este perfume es el ganador del premio FiFi Award Fragrance Of The Year Men`s Luxe 2006.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>anís</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.62036.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My Way de Giorgio Armani es una fragancia de la familia olfativa Floral para Mujeres. My Way se lanzó en 2020. My Way fue creada por Carlos Benaim y Bruno Jovanovic. Las Notas de Salida son flor de azahar del naranjo y bergamota; las Notas de Corazón son nardos y jazmín de la India; las Notas de Fondo son vainilla de Madagascar, almizcle blanco y cedro de Virginia. </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>nardos</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.829.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azzaro pour Homme de Azzaro es una fragancia de la familia olfativa Aromática Fougère para Hombres. Azzaro pour Homme se lanzó en 1978. Azzaro pour Homme fue creada por Gerard Anthony y Richard Wirtz. Las Notas de Salida son lavanda, limón (lima ácida), alcaravea, albahaca, bergamota, esclarea, iris y anís estrellado; las Notas de Corazón son vetiver, sándalo, pachulí, cedro, bayas de enebro y cardamomo; las Notas de Fondo son musgo de roble, cuero, ámbar, almizcle y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2505.jpg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. United Woman de Benetton es una fragancia de la familia olfativa Ámbar Floral para Mujeres. B. United Woman se lanzó en 2004. La Nariz detrás de esta fragrancia es Christophe Raynaud. Las Notas de Salida son bayas rojas, grosellas negras y bergamota de Sicilia; las Notas de Corazón son flor del algodonero, naranja, fresia, peonía y rosa; las Notas de Fondo son vainilla, frambuesa, sándalo, cedro y almizcle. </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2535.jpg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tribu de Benetton es una fragancia de la familia olfativa Floral para Mujeres. Tribu se lanzó en 1993. La Nariz detrás de esta fragrancia es Bernard Ellena. Las Notas de Salida son grosellas negras, mandarina italiana y hojas de violeta; las Notas de Corazón son manzanilla, jazmín de Marruecos, ylang-ylang, geranio y rosa de Bulgaria (rosa Damascena de Bulgaria); las Notas de Fondo son musgo de roble, benjuí, vetiver de Tahití y sándalo. </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.59499.jpg</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colors de Benetton Man Blue de Benetton es una fragancia de la familia olfativa Aromática Acuática para Hombres. Colors de Benetton Man Blue se lanzó en 2018. Las Notas de Salida son tequila y limón (lima ácida); la Nota de Corazón es melón; las Notas de Fondo son almizcle, enebro de Virginia y vetiver de Haití. </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.59498.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colors de Benetton Man Green de Benetton es una fragancia de la familia olfativa Amaderada para Hombres. Colors de Benetton Man Green se lanzó en 2018. La Nota de Salida es bergamota; la Nota de Corazón es cilantro; las Notas de Fondo son cedro y moras azules. </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66102.jpg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sisterland Green Jasmine de Benetton es una fragancia de la familia olfativa Floral Frutal para Mujeres. Sisterland Green Jasmine se lanzó en 2021. Las Notas de Salida son naranja tangerina y pera; las Notas de Corazón son jazmín y flor de azahar del naranjo; las Notas de Fondo son vainilla y almizcle. </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66101.jpg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sisterland Red Rose de Benetton es una fragancia de la familia olfativa Floral Frutal para Mujeres. Sisterland Red Rose se lanzó en 2021. Las Notas de Salida son durazno (melocotón) y toronja (pomelo); las Notas de Corazón son flor de iris y rosa; las Notas de Fondo son praliné y ámbar. </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>iris</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.77611.jpg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We Are Tribe de Benetton es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Esta fragrancia es nueva. We Are Tribe se lanzó en 2022. La Nariz detrás de esta fragrancia es Bérénice Watteau. Las Notas de Salida son kumquat (naranja enana), toronja (pomelo) y pimienta rosa; las Notas de Corazón son cedrón (hierba luisa, verbena de olor), haba tonka y lavanda; las Notas de Fondo son vetiver, cipriol (nagarmota) y ámbar. </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.79503.jpg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don de Bharara es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Don se lanzó en 2021. Las Notas de Salida son piña, bergamota y pimienta; las Notas de Corazón son clavo de olor, pera y cardamomo; las Notas de Fondo son almizcle, pachulí y sándalo. </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.74184.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">King de Bharara es una fragancia de la familia olfativa Aromática para Hombres. King se lanzó en 2021. Las Notas de Salida son naranja, limón (lima ácida) y bergamota; la Nota de Corazón es notas afrutadas; las Notas de Fondo son vainilla, almizcle blanco y ámbar. </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.79504.jpg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niche Femme de Bharara es una fragancia de la familia olfativa Floral para Mujeres. Niche Femme se lanzó en 2021. La Nota de Salida es frutas; las Notas de Corazón son incienso y rosa turca; las Notas de Fondo son sándalo y vainilla. </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.79501.jpg</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niche de Bharara es una fragancia de la familia olfativa Floral para Hombres y Mujeres. Niche se lanzó en 2021. Las Notas de Salida son cítricos y enebro de Virginia; las Notas de Corazón son jazmín, chocolate y abeto balsámico; las Notas de Fondo son Amberwood y musgo. </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.56778.jpg</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Coast de Bond No 9 es una fragancia de la familia olfativa Floral para Mujeres. Gold Coast se lanzó en 2019. La Nariz detrás de esta fragrancia es Michel Almairac. Las Notas de Salida son lichi, manzana roja y chabacano; las Notas de Corazón son sandía y rosa francesa; las Notas de Fondo son almizcle, cedro y vainilla. </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.38710.jpg</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madison Avenue Swarovski Limited Edition de Bond No 9 es una fragancia de la familia olfativa Chipre Floral para Mujeres. Madison Avenue Swarovski Limited Edition se lanzó en 2016. Las Notas de Salida son grosellas negras, bergamota y manzana; las Notas de Corazón son jazmín, magnolia y rosa; las Notas de Fondo son praliné, ambroxan y pachulí. </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.43635.jpg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nolita de Bond No 9 es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Nolita se lanzó en 2017. Las Notas de Salida son naranja tangerina y fresia; las Notas de Corazón son azucena, jazmín sambac (sampaguita) y rosa; las Notas de Fondo son almizcle, ámbar y sándalo. </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1304.jpg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Scent Of Peace de Bond No 9 es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. The Scent Of Peace se lanzó en 2006. La Nariz detrás de esta fragrancia es Michel Almairac. Las Notas de Salida son grosellas negras y toronja (pomelo); la Nota de Corazón es lirio de los valles (muguete); las Notas de Fondo son almizcle y cedro de Virginia. </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1298.jpg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Side de Bond No 9 es una fragancia de la familia olfativa Almizcle Floral Amaderado para Hombres y Mujeres. West Side se lanzó en 2006. La Nariz detrás de esta fragrancia es Michel Almairac. </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1410.jpg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Believe de Britney Spears es una fragancia de la familia olfativa Floral Frutal para Mujeres. Believe se lanzó en 2007. Las Notas de Salida son guayaba y naranja tangerina; las Notas de Corazón son flor de azahar del limero y madreselva; las Notas de Fondo son pachulí, praliné y ámbar. </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>pachulí</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.6733.jpg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Circus Fantasy de Britney Spears es una fragancia de la familia olfativa Floral Frutal para Mujeres. Circus Fantasy se lanzó en 2009. Las Notas de Salida son frambuesa, azúcar y flor del albaricoquero; las Notas de Corazón son orquídea, peonía y nenúfar (lirio de agua); las Notas de Fondo son notas dulces, vainilla, almizcle, violeta y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.141.jpg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curious de Britney Spears es una fragancia de la familia olfativa Floral para Mujeres. Curious se lanzó en 2004. La Nariz detrás de esta fragrancia es Claude Dir. Las Notas de Salida son magnolia, pera y flor de loto; las Notas de Corazón son jazmín, nardos y ciclamen (violeta persa); las Notas de Fondo son almizcle, vainilla, maderas blancas y sándalo. </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.69480.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Electric Fantasy de Britney Spears es una fragancia de la familia olfativa para Mujeres. Electric Fantasy se lanzó en 2021. Las Notas de Salida son maracuyá (fruta de la pasión) y pimienta rosa; las Notas de Corazón son heliotropo y jazmín; las Notas de Fondo son benjuí y ambroxan. </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.600.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fantasy de Britney Spears es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Fantasy se lanzó en 2005. La Nariz detrás de esta fragrancia es James Krivda. Las Notas de Salida son kiwi, lichi rojo y membrillo; las Notas de Corazón son chocolate blanco, quequito (pastelito), orquídea y jazmín; las Notas de Fondo son almizcle, raíz de lirio y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.69385.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fantasy Sheer de Britney Spears es una fragancia de la familia olfativa Floral Frutal para Mujeres. Fantasy Sheer se lanzó en 2021. Las Notas de Salida son Agua de cítricos, lichi y membrillo; las Notas de Corazón son nenúfar (lirio de agua) y lirio de los valles (muguete); las Notas de Fondo son quequito (pastelito), almizcle blanco, iris y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.62891.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Festive Fantasy de Britney Spears es una fragancia de la familia olfativa Floral Frutal para Mujeres. Festive Fantasy se lanzó en 2020. Las Notas de Salida son Zarzamora, cereza ácida (guinda) y ciruela; las Notas de Corazón son fresia, azucena y jazmín; las Notas de Fondo son azúcar, vainilla, almizcle y sándalo. </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.819.jpg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Burberry Brit de Burberry es una fragancia de la familia olfativa Floral Frutal para Mujeres. Burberry Brit se lanzó en 2003. La Nariz detrás de esta fragrancia es Natalie Gracia-Cetto. Las Notas de Salida son almendra, lima (limón verde) y pera; las Notas de Corazón son almendras acarameladas, azúcar y peonía; las Notas de Fondo son vainilla, haba tonka, ámbar y caoba. </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.153.jpg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aqva Pour Homme de Bvlgari es una fragancia de la familia olfativa Aromática Acuática para Hombres. Aqva Pour Homme se lanzó en 2005. La Nariz detrás de esta fragrancia es Jacques Cavallier. Las Notas de Salida son mandarina, naranja y petit grain; las Notas de Corazón son algas marinas, lavanda y flor del algodonero; las Notas de Fondo son cedro de Virginia, notas amaderadas, pachulí, esclarea y ámbar. </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.68293.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bvlgari Man Terrae Essence de Bvlgari es una fragancia de la familia olfativa Amaderada para Hombres. Bvlgari Man Terrae Essence se lanzó en 2021. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son cidra y Calamansi; las Notas de Corazón son vetiver y raíz de lirio; las Notas de Fondo son Notas terrosas y styrax. </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>terrosos</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.152.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omnia Crystalline de Bvlgari es una fragancia de la familia olfativa Floral Acuática para Mujeres. Omnia Crystalline se lanzó en 2005. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son bambú y pera; las Notas de Corazón son flor de loto, té y casia; las Notas de Fondo son almizcle, madera de gaiac y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.152.jpg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omnia Crystalline de Bvlgari es una fragancia de la familia olfativa Floral Acuática para Mujeres. Omnia Crystalline se lanzó en 2005. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son bambú y pera; las Notas de Corazón son flor de loto, té y casia; las Notas de Fondo son almizcle, madera de gaiac y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.155.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petits et Mamans de Bvlgari es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Petits et Mamans se lanzó en 1997. La Nariz detrás de esta fragrancia es Nathalie Lorson. Las Notas de Salida son palo de rosa de Brasil, naranja siciliana y bergamota; las Notas de Corazón son manzanilla, girasol y rosa; las Notas de Fondo son notas atalcadas, vainilla, iris y durazno blanco (melocotón blanco). </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>herbal</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.236.jpg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anais Anais de Cacharel es una fragancia de la familia olfativa Floral para Mujeres. Anais Anais se lanzó en 1978. Anais Anais fue creada por Roger Pellegrino, Robert Gonnon, Paul Leger y Raymond Chaillan. Las Notas de Salida son azucena blanca, jacinto, madreselva, gálbano, flor de azahar del naranjo, lavanda, bergamota, grosellas negras y limón (lima ácida); las Notas de Corazón son azucena, lirio de los valles (muguete), jazmín de Marruecos, clavel, madreselva, nardos, iris, ylang-ylang, rosa y raíz de lirio; las Notas de Fondo son musgo de roble, incienso, almizcle, cuero, sándalo, vetiver, cedro, pachulí y ámbar. </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.242.jpg</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noa de Cacharel es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Noa se lanzó en 1998. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son almizcle blanco, peonía, fresia, notas verdes, durazno (melocotón) y ciruela; las Notas de Corazón son azucena, lirio de los valles (muguete), hierba verde, jazmín, ylang-ylang y rosa; las Notas de Fondo son café, vainilla, sándalo, cilantro, incienso, haba tonka y cedro. </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.296.jpg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212 de Carolina Herrera es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. 212 se lanzó en 1997. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son flor de azahar del naranjo, flor de cactus, bergamota y mandarina; las Notas de Corazón son azucena, fresia, gardenia, jazmín, camelia blanca, lirio de los valles (muguete), rosa y peonía; las Notas de Fondo son almizcle y sándalo. </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.296.jpg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212 de Carolina Herrera es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. 212 se lanzó en 1997. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son flor de azahar del naranjo, flor de cactus, bergamota y mandarina; las Notas de Corazón son azucena, fresia, gardenia, jazmín, camelia blanca, lirio de los valles (muguete), rosa y peonía; las Notas de Fondo son almizcle y sándalo. </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.46093.jpg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212 VIP Black de Carolina Herrera es una fragancia de la familia olfativa Aromática Fougère para Hombres. 212 VIP Black se lanzó en 2017. 212 VIP Black fue creada por Carlos Benaim y Anne Flipo. Las Notas de Salida son absenta, anís y hinojo; la Nota de Corazón es lavanda; las Notas de Fondo son vaina de vainilla negra y almizcle. </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>especiado suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.46093.jpg</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212 VIP Black de Carolina Herrera es una fragancia de la familia olfativa Aromática Fougère para Hombres. 212 VIP Black se lanzó en 2017. 212 VIP Black fue creada por Carlos Benaim y Anne Flipo. Las Notas de Salida son absenta, anís y hinojo; la Nota de Corazón es lavanda; las Notas de Fondo son vaina de vainilla negra y almizcle. </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>especiado suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.55449.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bad Boy de Carolina Herrera es una fragancia de la familia olfativa Ámbar Especiada para Hombres. Bad Boy se lanzó en 2019. Bad Boy fue creada por Quentin Bisch y Louise Turner. Las Notas de Salida son pimienta blanca, bergamota y pimienta rosa; las Notas de Corazón son salvia y cedro; las Notas de Fondo son haba tonka y cacao. </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.55449.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bad Boy de Carolina Herrera es una fragancia de la familia olfativa Ámbar Especiada para Hombres. Bad Boy se lanzó en 2019. Bad Boy fue creada por Quentin Bisch y Louise Turner. Las Notas de Salida son pimienta blanca, bergamota y pimienta rosa; las Notas de Corazón son salvia y cedro; las Notas de Fondo son haba tonka y cacao. </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1734.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CH de Carolina Herrera es una fragancia de la familia olfativa Ámbar Floral para Mujeres. CH se lanzó en 2007. CH fue creada por Olivier Cresp y Rosendo Mateu. Las Notas de Salida son fruta tropical, bergamota, toronja (pomelo), limón de Amalfi (lima de Amalfi) y notas acuáticas; las Notas de Corazón son praliné, canela, flor del naranjo africano, jazmín y tintura de rosas; las Notas de Fondo son gamuza, pachulí, madera de cachemira, sándalo, almizcle, cedro de Virginia y ámbar. </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78640.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CH Pasión for Her de Carolina Herrera es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Esta fragrancia es nueva. CH Pasión for Her se lanzó en 2023. CH Pasión for Her fue creada por Quentin Bisch y Nisrine Bouazzaoui Grillié. Las Notas de Salida son pera, bergamota y hojas de violeta; las Notas de Corazón son pimienta de Madagascar, petalia, jazmín sambac (sampaguita) y vetiver de Haití; las Notas de Fondo son vainilla, Vanilina, almizcle y cuero. </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.41888.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carolina Herrera de Carolina Herrera es una fragancia de la familia olfativa Floral para Hombres y Mujeres. Carolina Herrera se lanzó en 2016. La Nariz detrás de esta fragrancia es Carlos Benaim. Las Notas de Salida son notas verdes y cítricos; las Notas de Corazón son nardos y jazmín; la Nota de Fondo es notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>nardos</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39681.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Girl de Carolina Herrera es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Good Girl se lanzó en 2016. Good Girl fue creada por Louise Turner y Quentin Bisch. Las Notas de Salida son almendra, café, bergamota y limón (lima ácida); las Notas de Corazón son nardos, jazmín sambac (sampaguita), flor de azahar del naranjo, raíz de lirio y rosa de Bulgaria (rosa Damascena de Bulgaria); las Notas de Fondo son haba tonka, cacao, vainilla, praliné, sándalo, almizcle, ámbar, madera de cachemira, canela, pachulí y cedro. </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39681.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Girl de Carolina Herrera es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Good Girl se lanzó en 2016. Good Girl fue creada por Louise Turner y Quentin Bisch. Las Notas de Salida son almendra, café, bergamota y limón (lima ácida); las Notas de Corazón son nardos, jazmín sambac (sampaguita), flor de azahar del naranjo, raíz de lirio y rosa de Bulgaria (rosa Damascena de Bulgaria); las Notas de Fondo son haba tonka, cacao, vainilla, praliné, sándalo, almizcle, ámbar, madera de cachemira, canela, pachulí y cedro. </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.48103.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Girl Légère de Carolina Herrera es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Good Girl Légère se lanzó en 2018. La Nariz detrás de esta fragrancia es Louise Turner. Las Notas de Salida son ylang-ylang, mandarina, bergamota y limón (lima ácida); las Notas de Corazón son nardos, jazmín, flor de azahar del naranjo y rosa de Bulgaria (rosa Damascena de Bulgaria); las Notas de Fondo son dulce de leche, praliné, haba tonka, canela, madera de cachemira, sándalo, almizcle, ámbar, pachulí y cedro. </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>lactónico</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.61769.jpg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Girl Suprême de Carolina Herrera es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Good Girl Suprême se lanzó en 2020. La Nariz detrás de esta fragrancia es Louise Turner. Las Notas de Salida son frutas del bosque y jazmín egipcio; las Notas de Corazón son haba tonka y nardos; la Nota de Fondo es vetiver. </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.72698.jpg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very Good Girl Glam de Carolina Herrera es una fragancia de la familia olfativa para Mujeres. Esta fragrancia es nueva. Very Good Girl Glam se lanzó en 2022. Very Good Girl Glam fue creada por Quentin Bisch, Louise Turner y Shyamala Maisondieu. Las Notas de Salida son cereza ácida (guinda) y almendra amarga; las Notas de Corazón son rosa y azucena; las Notas de Fondo son vainilla Bourbon y vetiver. </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>acerezado</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>almendrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.307.jpg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Declaration de Cartier es una fragancia de la familia olfativa Almizcle Amaderado Floral para Hombres. Declaration se lanzó en 1998. La Nariz detrás de esta fragrancia es Jean-Claude Ellena. Las Notas de Salida son naranja amarga, alcaravea, abedul, bergamota, cilantro, mandarina, neroli y abrótano; las Notas de Corazón son cardamomo guatemalteco, pimienta, jengibre, iris, enebro de Virginia, canela, raíz de lirio y jazmín; las Notas de Fondo son vetiver de Tahití, té, cedro, cuero, musgo de roble y ámbar. </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.215.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dior Addict de Dior es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Dior Addict se lanzó en 2002. Dior Addict fue creada por Thierry Wasser y Christian Dussoulier. Las Notas de Salida son zarzamora (frambuesa negra), hojas de mandarina y flor de la acacia de Constantinopla (árbol de la seda); las Notas de Corazón son jazmín, reina de la noche, flor de azahar del naranjo y rosa; las Notas de Fondo son vainilla, haba tonka y Sándalo de Mysore. </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.228.jpg</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fahrenheit de Dior es una fragancia de la familia olfativa Aromática Fougère para Hombres. Fahrenheit se lanzó en 1988. Fahrenheit fue creada por Jean-Louis Sieuzac, Michel Almairac y Maurice Roger. Las Notas de Salida son flor del moscadero, lavanda, cedro, manzanilla, mandarina, flor del espino, bergamota y limón (lima ácida); las Notas de Corazón son hojas de violeta, nuez moscada, cedro, sándalo, clavel, madreselva, jazmín y lirio de los valles (muguete); las Notas de Fondo son cuero, vetiver, almizcle, ámbar, pachulí y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.13016.jpg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dior Homme Intense 2011 de Dior es una fragancia de la familia olfativa Almizcle Amaderado Floral para Hombres. Dior Homme Intense 2011 se lanzó en 2011. La Nariz detrás de esta fragrancia es François Demachy. La Nota de Salida es lavanda; las Notas de Corazón son iris, almizcle ambreta y pera; las Notas de Fondo son cedro de Virginia y vetiver. </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>iris</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.219.jpg</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypnotic Poison de Dior es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. Hypnotic Poison se lanzó en 1998. Hypnotic Poison fue creada por Annick Menardo y Christian Dussoulier. Las Notas de Salida son coco, ciruela y chabacano; las Notas de Corazón son palo de rosa de Brasil, jazmín, alcaravea, nardos, rosa y lirio de los valles (muguete); las Notas de Fondo son vainilla, almendra, sándalo y almizcle. </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>almendrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.210.jpg</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>J'adore de Dior es una fragancia de la familia olfativa Floral Frutal para Mujeres. J'adore se lanzó en 1999. La Nariz detrás de esta fragrancia es Calice Becker. Las Notas de Salida son pera, melón, magnolia, durazno (melocotón), mandarina y bergamota; las Notas de Corazón son jazmín, lirio de los valles (muguete), nardos, fresia, rosa, orquídea, ciruela y violeta; las Notas de Fondo son almizcle, vainilla, zarzamora (frambuesa negra) y cedro. Este perfume es el ganador del premio FiFi Award Best National Advertising Campaign / TV 2007.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.223.jpg</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miss Dior de Dior es una fragancia de la familia olfativa Chipre Floral para Mujeres. Miss Dior se lanzó en 1947. Miss Dior fue creada por Jean Carles y Paul Vacher. Las Notas de Salida son aldehídos, gálbano, esclarea, gardenia y bergamota; las Notas de Corazón son narciso, iris, clavel, raíz de lirio, lirio de los valles (muguete), jazmín, rosa y neroli; las Notas de Fondo son musgo de roble, cuero, vetiver, pachulí, ládano, sándalo y ámbar. </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.35561.jpg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poison Girl de Dior es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. Poison Girl se lanzó en 2016. La Nariz detrás de esta fragrancia es François Demachy. Las Notas de Salida son naranja amarga y limón (lima ácida); las Notas de Corazón son rosa de Damasco, rosa de Grasse y flor de azahar del naranjo; las Notas de Fondo son vainilla, almendra, haba tonka, bálsamo de Tolú, sándalo, cachemira y heliotropo. </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>almendrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.214.jpg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pure Poison de Dior es una fragancia de la familia olfativa Floral para Mujeres. Pure Poison se lanzó en 2004. Pure Poison fue creada por Carlos Benaim, Dominique Ropion y Olivier Polge. Las Notas de Salida son jazmín, naranja, bergamota y mandarina siciliana; las Notas de Corazón son gardenia y flor de azahar del naranjo; las Notas de Fondo son sándalo, ámbar blanco, cedro y almizcle blanco. </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.48100.jpg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauvage Eau de Parfum de Dior es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Sauvage Eau de Parfum se lanzó en 2018. La Nariz detrás de esta fragrancia es François Demachy. La Nota de Salida es bergamota; las Notas de Corazón son pimienta de Sichuan, lavanda, anís estrellado y nuez moscada; las Notas de Fondo son ambroxan y vainilla. </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31861.jpg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauvage de Dior es una fragancia de la familia olfativa Aromática Fougère para Hombres. Sauvage se lanzó en 2015. La Nariz detrás de esta fragrancia es François Demachy. Las Notas de Salida son bergamota de Calabria y pimienta; las Notas de Corazón son pimienta de Sichuan, lavanda, pimienta rosa, vetiver, pachulí, geranio y elemí; las Notas de Fondo son ambroxan, cedro y ládano. </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31861.jpg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauvage de Dior es una fragancia de la familia olfativa Aromática Fougère para Hombres. Sauvage se lanzó en 2015. La Nariz detrás de esta fragrancia es François Demachy. Las Notas de Salida son bergamota de Calabria y pimienta; las Notas de Corazón son pimienta de Sichuan, lavanda, pimienta rosa, vetiver, pachulí, geranio y elemí; las Notas de Fondo son ambroxan, cedro y ládano. </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31861.jpg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauvage de Dior es una fragancia de la familia olfativa Aromática Fougère para Hombres. Sauvage se lanzó en 2015. La Nariz detrás de esta fragrancia es François Demachy. Las Notas de Salida son bergamota de Calabria y pimienta; las Notas de Corazón son pimienta de Sichuan, lavanda, pimienta rosa, vetiver, pachulí, geranio y elemí; las Notas de Fondo son ambroxan, cedro y ládano. </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.56324.jpg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauvage Parfum de Dior es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Sauvage Parfum se lanzó en 2019. La Nariz detrás de esta fragrancia es François Demachy. Las Notas de Salida son bergamota, mandarina y elemí; la Nota de Corazón es sándalo; las Notas de Fondo son incienso de olíbano (franquincienso), haba tonka y vainilla. </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.42944.jpg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK All de Calvin Klein es una fragancia de la familia olfativa Cítrica para Hombres y Mujeres. CK All se lanzó en 2017. CK All fue creada por Alberto Morillas y Harry Fremont. Las Notas de Salida son bergamota, mandarina y flor del pomelo; las Notas de Corazón son jazmín, ruibarbo, fresia y azucena; las Notas de Fondo son almizcle, ámbar y vetiver. </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.42944.jpg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK All de Calvin Klein es una fragancia de la familia olfativa Cítrica para Hombres y Mujeres. CK All se lanzó en 2017. CK All fue creada por Alberto Morillas y Harry Fremont. Las Notas de Salida son bergamota, mandarina y flor del pomelo; las Notas de Corazón son jazmín, ruibarbo, fresia y azucena; las Notas de Fondo son almizcle, ámbar y vetiver. </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.275.jpg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK be de Calvin Klein es una fragancia de la familia olfativa Almizcle Floral Amaderado para Hombres y Mujeres. CK be se lanzó en 1996. La Nariz detrás de esta fragrancia es René Morgenthaler. Las Notas de Salida son lavanda, notas verdes, bergamota, menta, enebro de Virginia y mandarina; las Notas de Corazón son hierba verde, durazno (melocotón), jazmín, fresia, magnolia y orquídea; las Notas de Fondo son almizcle, sándalo, cedro, vainilla, ámbar y opopónaco. </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.8098.jpg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eternity Aqua for Men de Calvin Klein es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Eternity Aqua for Men se lanzó en 2010. Las Notas de Salida son pepino, cítricos, notas verdes y flor de loto; las Notas de Corazón son ciruela, lavanda, pimienta de Sichuan y cedro de Virginia; las Notas de Fondo son almizcle, sándalo, pachulí y madera de gaiac. </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.258.jpg</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eternity For Men de Calvin Klein es una fragancia de la familia olfativa Aromática Fougère para Hombres. Eternity For Men se lanzó en 1990. La Nariz detrás de esta fragrancia es Carlos Benaim. Las Notas de Salida son lavanda, limón (lima ácida), bergamota y mandarina; las Notas de Corazón son salvia, bayas de enebro, albahaca, geranio, jazmín, cilantro, flor de azahar del naranjo, lirio de los valles (muguete) y azucena; las Notas de Fondo son sándalo, vetiver, almizcle, palo de rosa de Brasil y ámbar. </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.258.jpg</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eternity For Men de Calvin Klein es una fragancia de la familia olfativa Aromática Fougère para Hombres. Eternity For Men se lanzó en 1990. La Nariz detrás de esta fragrancia es Carlos Benaim. Las Notas de Salida son lavanda, limón (lima ácida), bergamota y mandarina; las Notas de Corazón son salvia, bayas de enebro, albahaca, geranio, jazmín, cilantro, flor de azahar del naranjo, lirio de los valles (muguete) y azucena; las Notas de Fondo son sándalo, vetiver, almizcle, palo de rosa de Brasil y ámbar. </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.259.jpg</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eternity Moment de Calvin Klein es una fragancia de la familia olfativa Floral para Mujeres. Eternity Moment se lanzó en 2004. Eternity Moment fue creada por Harry Fremont y Jacques Cavallier. Las Notas de Salida son lichi, frambuesa, melón y guayaba; las Notas de Corazón son peonía rosada de China, jazmín, nenúfar (lirio de agua) y flor de pasionaria; las Notas de Fondo son almizcle, palo de rosa de Brasil, madera de cachemira y sándalo. </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.253.jpg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Euphoria de Calvin Klein es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Euphoria se lanzó en 2005. Euphoria fue creada por Dominique Ropion, Carlos Benaim y Loc Dong. Las Notas de Salida son granada, caqui (pérsimo) y acordes verdes; las Notas de Corazón son orquídea negra, flor de loto y champaca; las Notas de Fondo son caoba, ámbar, violeta negra y crema batida. Este perfume es el ganador del premio FiFi Award Fragrance Of The Year Women`s Luxe 2006.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.933.jpg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK IN2U for Him de Calvin Klein es una fragancia de la familia olfativa Aromática Fougère para Hombres. CK IN2U for Him se lanzó en 2007. CK IN2U for Him fue creada por Carlos Benaim, Bruno Jovanovic, Loc Dong y Jean-Marc Chaillan. Las Notas de Salida son limón (lima ácida) y hojas de tomatera; la Nota de Corazón es vaina de cacao; las Notas de Fondo son cedro, almizcle blanco y vetiver. </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>cacao</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.249.jpg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obsession for Men de Calvin Klein es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Obsession for Men se lanzó en 1986. La Nariz detrás de esta fragrancia es Robert Slattery. Las Notas de Salida son canela, lavanda, cilantro, mandarina, lima (limón verde), bergamota y toronja (pomelo); las Notas de Corazón son mirra, nuez moscada, clavel, palo de rosa de Brasil, pino, salvia, jazmín y bayas rojas; las Notas de Fondo son ámbar, vainilla, sándalo, almizcle, pachulí y vetiver. </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.276.jpg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK One de Calvin Klein es una fragancia de la familia olfativa Cítrica Aromática para Hombres y Mujeres. CK One se lanzó en 1994. CK One fue creada por Alberto Morillas y Harry Fremont. Las Notas de Salida son limón (lima ácida), notas verdes, bergamota, mandarina, piña, cardamomo y papaya; las Notas de Corazón son lirio de los valles (muguete), jazmín, violeta, nuez moscada, rosa, raíz de lirio y fresia; las Notas de Fondo son acordes verdes, almizcle, cedro, sándalo, musgo de roble, té verde y ámbar. </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.276.jpg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK One de Calvin Klein es una fragancia de la familia olfativa Cítrica Aromática para Hombres y Mujeres. CK One se lanzó en 1994. CK One fue creada por Alberto Morillas y Harry Fremont. Las Notas de Salida son limón (lima ácida), notas verdes, bergamota, mandarina, piña, cardamomo y papaya; las Notas de Corazón son lirio de los valles (muguete), jazmín, violeta, nuez moscada, rosa, raíz de lirio y fresia; las Notas de Fondo son acordes verdes, almizcle, cedro, sándalo, musgo de roble, té verde y ámbar. </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.12520.jpg</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK One Shock For Him de Calvin Klein es una fragancia de la familia olfativa Ámbar Especiada para Hombres. CK One Shock For Him se lanzó en 2011. CK One Shock For Him fue creada por Ann Gottlieb y IFF. Las Notas de Salida son lavanda, clementina y pepino; las Notas de Corazón son cardamomo, pimienta, albahaca y osmanto (olivo oloroso); las Notas de Fondo son tabaco, ámbar, pachulí, notas amaderadas y almizcle. </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.12519.jpg</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CK One Shock For Her de Calvin Klein es una fragancia de la familia olfativa Ámbar Especiada para Mujeres. CK One Shock For Her se lanzó en 2011. CK One Shock For Her fue creada por Ann Gottlieb y IFF. Las Notas de Salida son flor de pasionaria, amapola roja y peonía; las Notas de Corazón son chocolate mexicano, zarzamora (frambuesa negra), narciso y jazmín; las Notas de Fondo son vainilla, almizcle, ámbar y pachulí. </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.372.jpg</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clinique Happy de Clinique es una fragancia de la familia olfativa Floral Frutal para Mujeres. Clinique Happy se lanzó en 1998. Clinique Happy fue creada por Jean Claude Delville y Rodrigo Flores-Roux. Las Notas de Salida son naranja, toronja sanguina, mandarina hindú, bergamota, manzana y ciruela; las Notas de Corazón son lirio de los valles (muguete), fresia, orquídea y rosa; las Notas de Fondo son mimosa, azucena, magnolia, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.373.jpg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clinique Happy de Clinique es una fragancia de la familia olfativa Cítrica Aromática para Hombres. Clinique Happy se lanzó en 1999. Las Notas de Salida son mandarina, lima (limón verde), notas marinas, limón (lima ácida) y notas verdes; las Notas de Corazón son fresia, jazmín, lirio de los valles (muguete) y rosa; las Notas de Fondo son ciprés, almizcle, cedro y madera de gaiac. </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.60332.jpg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coach Blue de Coach es una fragancia de la familia olfativa Aromática Especiada para Hombres. Coach Blue se lanzó en 2020. Las Notas de Salida son lima (limón verde) y absenta; las Notas de Corazón son notas ozónicas y pimienta negra; las Notas de Fondo son cedro y ámbar. </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://fimgs.net/mdimg/perfume/375x500.38855.jpg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coach the Fragrance by Coach is a Floral fragrance for women. Coach the Fragrance was launched in 2016. Coach the Fragrance was created by Juliette Karagueuzoglou and Anne Flipo. Top notes are Raspberry Leaf, Pear and Pink Pepper; middle notes are Turkish Rose, Gardenia and Cyclamen; base notes are Suede, Musk, Cashmeran and Sandalwood. </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>fruity</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>musky</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.50777.jpg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coach Platinum de Coach es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Coach Platinum se lanzó en 2018. La Nariz detrás de esta fragrancia es Bruno Jovanovic. Las Notas de Salida son piña, pimienta negra y bayas de enebro; las Notas de Corazón son cachemira, salvia y geranio; las Notas de Fondo son vainilla, cuero, sándalo y pachulí. </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://fimgs.net/mdimg/perfume/375x500.9371.jpg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coach Poppy by Coach is a Floral Fruity fragrance for women. Coach Poppy was launched in 2010. The nose behind this fragrance is Celine Barel. Top notes are Cucumber, Mandarin Orange and Freesia; middle notes are Sweet Notes, Water Lily, Rose, Jasmine and Gardenia; base notes are Marshmallow, Vanille, Sandalwood and Virginia Cedar. </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>sweet</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>aquatic</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>ozonic</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://eebluperfumes.com/wp-content/uploads/2023/08/signature-color-1.jpeg</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>nenúfar, mandarina verde , guayaba, violeta, miel, mimosa, flor de naranjo, jazmín.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Vainilla</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Ámbar</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Flor de naranjo</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.14599.jpg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coach Signature Summer Fragrance de Coach es una fragancia de la familia olfativa Floral Frutal para Mujeres. Coach Signature Summer Fragrance se lanzó en 2012. Las Notas de Salida son mandarina, flor de loto, gardenia y magnolia; las Notas de Corazón son jazmín, madreselva y genista; las Notas de Fondo son sándalo, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.72051.jpg</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coach Wild Rose de Coach es una fragancia de la familia olfativa Floral Frutal para Mujeres. Esta fragrancia es nueva. Coach Wild Rose se lanzó en 2022. Las Notas de Salida son grosella roja y bergamota; las Notas de Corazón son rosa y jazmín sambac (sampaguita); las Notas de Fondo son ambroxan, haba tonka y musgo. </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://fimgs.net/mdimg/perfume/375x500.84034.jpg</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cool Water Oceanic Edition by Davidoff is a Floral Aquatic fragrance for women. This is a new fragrance. Cool Water Oceanic Edition was launched in 2023. Top note is Water Notes; middle note is Rose; base note is Driftwood. </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>aquatic</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>woody</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>aromatic</t>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>fresh</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.507.jpg</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cool Water de Davidoff es una fragancia de la familia olfativa Aromática Acuática para Hombres. Cool Water se lanzó en 1988. La Nariz detrás de esta fragrancia es Pierre Bourdon. Las Notas de Salida son agua de mar, lavanda, menta, notas verdes, romero, calone y cilantro; las Notas de Corazón son sándalo, neroli, geranio y jazmín; las Notas de Fondo son almizcle, musgo de roble, tabaco, cedro y ámbar gris. </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39383.jpg</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bad de Diesel es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Bad se lanzó en 2016. Bad fue creada por Anne Flipo y Carlos Benaim. Las Notas de Salida son lavanda, bergamota, cardamomo y hojas de violeta; las Notas de Corazón son caviar, raíz de lirio y salvia; las Notas de Fondo son notas amaderadas, tabaco, ambroxan, haba tonka y pachulí. </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1605.jpg</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuel for Life Homme de Diesel es una fragancia de la familia olfativa Aromática Fougère para Hombres. Fuel for Life Homme se lanzó en 2007. Fuel for Life Homme fue creada por Annick Menardo y Jacques Cavallier. Las Notas de Salida son anís y toronja (pomelo); las Notas de Corazón son frambuesa y lavanda; las Notas de Fondo son notas amaderadas y heliotropo. </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>anís</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.5532.jpg</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Only The Brave de Diesel es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Only The Brave se lanzó en 2009. Only The Brave fue creada por Alienor Massenet, Olivier Polge y Pierre Wargnye. Las Notas de Salida son limón de Amalfi (lima de Amalfi) y mandarina; las Notas de Corazón son violeta, cedro de Virginia y cilantro; las Notas de Fondo son ámbar, cuero, benjuí, ládano francés y styrax. </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.494.jpg</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus Plus Masculine de Diesel es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Plus Plus Masculine se lanzó en 1997. La Nariz detrás de esta fragrancia es Arturetto Landi. Las Notas de Salida son naranja, bergamota, hojas de palmera y heliotropo; las Notas de Corazón son jazmín, cilantro, abedul, violeta, salvia, notas verdes, cardamomo y lirio de los valles (muguete); las Notas de Fondo son canela, haba tonka, nuez moscada, sándalo, almizcle, pachulí, clavo de olor, anís, vetiver y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.55037.jpg</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spirit Of The Brave de Diesel es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Spirit Of The Brave se lanzó en 2019. Las Notas de Salida son bergamota y gálbano; las Notas de Corazón son abeto y ciprés; las Notas de Fondo son haba tonka y ládano. </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.504.jpg</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DKNY Women de Donna Karan es una fragancia de la familia olfativa Floral Frutal para Mujeres. DKNY Women se lanzó en 1999. Las Notas de Salida son hojas de tomatera, naranja, mandarina y chabacano; las Notas de Corazón son casia, nenúfar (lirio de agua), nenúfar amarillo, narciso amarillo, jazmín, heliotropo, ylang-ylang, orquídea y rosa; las Notas de Fondo son abedul, gamuza, sándalo, pachulí y ámbar. </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.10914.jpg</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DKNY Golden Delicious de Donna Karan es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. DKNY Golden Delicious se lanzó en 2010. Las Notas de Salida son manzana roja, flor del naranjo africano y ciruela; las Notas de Corazón son lirio de los valles (muguete), azucena, orquídea y rosa; las Notas de Fondo son sándalo, almizcle y madera de teca. </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.30221.jpg</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DKNY Women Summer 2015 de Donna Karan es una fragancia de la familia olfativa Chipre Floral para Mujeres. DKNY Women Summer 2015 se lanzó en 2015. Las Notas de Salida son toronja (pomelo) y naranja dulce; las Notas de Corazón son azucena, iris y clavel; las Notas de Fondo son resina de abeto, pachulí y vainilla. </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.44035.jpg</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Light Blue Eau Intense Pour Homme de Dolce&amp;Gabbana es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Light Blue Eau Intense Pour Homme se lanzó en 2017. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son toronja (pomelo) y mandarina; las Notas de Corazón son agua de mar y enebro de Virginia; las Notas de Fondo son almizcle y Amberwood. </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.485.jpg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Light Blue de Dolce&amp;Gabbana es una fragancia de la familia olfativa Floral Frutal para Mujeres. Light Blue se lanzó en 2001. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son limón siciliano (lima siciliana), manzana, cedro y campanilla; las Notas de Corazón son bambú, jazmín y rosa blanca; las Notas de Fondo son cedro, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.15336.jpg</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolce&amp;Gabbana Pour Homme (2012) de Dolce&amp;Gabbana es una fragancia de la familia olfativa Aromática Fougère para Hombres. Dolce&amp;Gabbana Pour Homme (2012) se lanzó en 2012. Las Notas de Salida son cítricos, bergamota, neroli y mandarina; las Notas de Corazón son lavanda, salvia y pimienta; las Notas de Fondo son tabaco, haba tonka y cedro. </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2056.jpg</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The One for Men de Dolce&amp;Gabbana es una fragancia de la familia olfativa Amaderada Especiada para Hombres. The One for Men se lanzó en 2008. La Nariz detrás de esta fragrancia es Olivier Polge. Las Notas de Salida son toronja (pomelo), cilantro y albahaca; las Notas de Corazón son jengibre, cardamomo y flor de azahar del naranjo; las Notas de Fondo son ámbar, tabaco y cedro. </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2056.jpg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The One for Men de Dolce&amp;Gabbana es una fragancia de la familia olfativa Amaderada Especiada para Hombres. The One for Men se lanzó en 2008. La Nariz detrás de esta fragrancia es Olivier Polge. Las Notas de Salida son toronja (pomelo), cilantro y albahaca; las Notas de Corazón son jengibre, cardamomo y flor de azahar del naranjo; las Notas de Fondo son ámbar, tabaco y cedro. </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.51249.jpg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Only One de Dolce&amp;Gabbana es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. The Only One se lanzó en 2018. Las Notas de Salida son violeta, naranja y bergamota; las Notas de Corazón son café, pera, iris, flor de azahar del naranjo y rosa; las Notas de Fondo son caramelo, vainilla y pachulí. </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>caramelo</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2069.jpg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drakkar Noir de Guy Laroche es una fragancia de la familia olfativa Aromática Fougère para Hombres. Drakkar Noir se lanzó en 1982. La Nariz detrás de esta fragrancia es Pierre Wargnye. Las Notas de Salida son lavanda, limón (lima ácida), bergamota, romero, menta, cedrón (hierba luisa, verbena de olor), albahaca y abrótano; las Notas de Corazón son enebro de Virginia, cilantro, canela, clavel, ajenjo (absenta), angélica y jazmín; las Notas de Fondo son musgo de roble, cuero, abeto, agujas de pino, sándalo, vetiver, pachulí, cedro, ámbar y resinas. </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.51413.jpg</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wood for Him de DSQUARED² es una fragancia de la familia olfativa Almizcle Amaderado Floral para Hombres. Wood for Him se lanzó en 2018. Las Notas de Salida son limón siciliano (lima siciliana), bergamota de Calabria y mandarina; las Notas de Corazón son hojas de violeta, jengibre y cardamomo; las Notas de Fondo son maderas blancas, vetiver y ambroxan. </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>aromático</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5004,6 +5004,7082 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1036.jpg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Escada Magnetism de Escada es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. Escada Magnetism se lanzó en 2003. Escada Magnetism fue creada por Steve DeMercado y Pierre Bourdon. Las Notas de Salida son bayas rojas, grosellas negras, casia, lichi, piña y melón; las Notas de Corazón son hojas verdes, albahaca, flor del almendro, iris, fresia, heliotropo, jazmín, magnolia, alcaravea, rosa y lirio de los valles (muguete); las Notas de Fondo son caramelo, vainilla, pachulí, benjuí, almizcle, sándalo, ámbar y vetiver. </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.548.jpg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowing de Estée Lauder es una fragancia de la familia olfativa Chipre Floral para Mujeres. Knowing se lanzó en 1988. La Nariz detrás de esta fragrancia es Jean Kerleo. Las Notas de Salida son aldehídos, mimosa, rosa, cilantro, notas verdes, ciruela, nardos y melón; las Notas de Corazón son pachulí, cardamomo, cedro, hoja de laurel, raíz de lirio, jazmín, flor de azahar del naranjo, lirio de los valles (muguete) y azahar de la China; las Notas de Fondo son musgo de roble, pachulí, algalia (civet), especias, vetiver, sándalo, ámbar, raíz de lirio y almizcle. </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>terrosos</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.32402.jpg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferrari Man in Red de Ferrari es una fragancia de la familia olfativa Aromática Fougère para Hombres. Ferrari Man in Red se lanzó en 2015. Las Notas de Salida son manzana roja, cardamomo y bergamota; las Notas de Corazón son ciruela amarilla, lavanda y flor de azahar del naranjo; las Notas de Fondo son cedro, haba tonka y ládano. </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3.jpg</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amarige de Givenchy es una fragancia de la familia olfativa Floral para Mujeres. Amarige se lanzó en 1991. La Nariz detrás de esta fragrancia es Dominique Ropion. Las Notas de Salida son flor de azahar del naranjo, durazno (melocotón), ciruela, neroli, palo de rosa de Brasil, mandarina y violeta; las Notas de Corazón son nardos, mimosa, gardenia, ylang-ylang, jazmín, acacia negra (robinia), clavel, bayas rojas, grosellas negras, casia, rosa y orquídea; las Notas de Fondo son sándalo, notas amaderadas, vainilla, ámbar, almizcle, haba tonka y cedro. </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Floral amarillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17259.jpg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gentlemen Only de Givenchy es una fragancia de la familia olfativa Amaderada para Hombres. Gentlemen Only se lanzó en 2013. La Nariz detrás de esta fragrancia es Jean Jacques. Las Notas de Salida son pimienta rosa, mandarina verde, hojas de abedul, nuez moscada y bergamota; las Notas de Corazón son vetiver, cedro, pachulí, hojas de violeta y elemí; las Notas de Fondo son incienso y almizcle. </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ahumado</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.955.jpg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanderbilt de Gloria Vanderbilt es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Vanderbilt se lanzó en 1982. La Nariz detrás de esta fragrancia es Sophia Grojsman. Las Notas de Salida son aldehídos, piña, flor de azahar del naranjo, lavanda, bergamota y notas verdes; las Notas de Corazón son clavel, nardos, ylang-ylang, raíz de lirio, jazmín y rosa; las Notas de Fondo son vainilla, sándalo, canela, opopónaco, algalia (civet), almizcle y vetiver. </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1061.jpg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabotine de Grès es una fragancia de la familia olfativa Floral para Mujeres. Cabotine se lanzó en 1990. La Nariz detrás de esta fragrancia es Jean Claude Delville. Las Notas de Salida son cilantro, flor de azahar del naranjo, grosellas negras, casia, ciruela, naranja tangerina y durazno (melocotón); las Notas de Corazón son nardos, jacinto, clavel, jengibre, jazmín, ylang-ylang, fresia, iris, rosa, heliotropo y violeta; las Notas de Fondo son algalia (civet), vetiver, grosellas negras, almizcle, sándalo, cedro, ámbar, haba tonka y vainilla. </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.4608.jpg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grey Flannel de Geoffrey Beene es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Grey Flannel se lanzó en 1975. La Nariz detrás de esta fragrancia es Andre Fromentin. Las Notas de Salida son gálbano, petit grain, neroli, bergamota y limón (lima ácida); las Notas de Corazón son violeta, iris, geranio, mimosa, narciso, salvia y rosa; las Notas de Fondo son musgo de roble, vetiver, cedro, haba tonka y almendra. </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.44894.jpg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gucci Bloom de Gucci es una fragancia de la familia olfativa Floral para Mujeres. Gucci Bloom se lanzó en 2017. La Nariz detrás de esta fragrancia es Alberto Morillas. La Nota de Salida es jazmín; la Nota de Corazón es nardos; la Nota de Fondo es Camilla de Rangoon. </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>nardos</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17322.jpg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gucci Guilty Black Pour Homme de Gucci es una fragancia de la familia olfativa Aromática Fougère para Hombres. Gucci Guilty Black Pour Homme se lanzó en 2013. Las Notas de Salida son lavanda y cilantro verde; las Notas de Corazón son notas verdes, flor de azahar del naranjo y neroli; las Notas de Fondo son cedro y pachulí. </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.9677.jpg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gucci Guilty de Gucci es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Gucci Guilty se lanzó en 2010. La Nariz detrás de esta fragrancia es Aurelien Guichard. Las Notas de Salida son pimienta rosa, mandarina y bergamota; las Notas de Corazón son lila, durazno (melocotón), geranio, jazmín y grosellas negras; las Notas de Fondo son pachulí, ámbar, almizcle blanco y vainilla. </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>especiado suave</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.53320.jpg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Guerlain Bloom of Rose de Guerlain es una fragancia de la familia olfativa Floral para Mujeres. Mon Guerlain Bloom of Rose se lanzó en 2019. Mon Guerlain Bloom of Rose fue creada por Thierry Wasser y Delphine Jelk. Las Notas de Salida son cítricos y lavanda; las Notas de Corazón son neroli, rosa de Bulgaria (rosa Damascena de Bulgaria) y jazmín sambac (sampaguita); las Notas de Fondo son vainilla de Tahití y sándalo. </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.43297.jpg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Guerlain de Guerlain es una fragancia de la familia olfativa Ámbar Amaderada para Mujeres. Mon Guerlain se lanzó en 2017. Mon Guerlain fue creada por Thierry Wasser y Delphine Jelk. Las Notas de Salida son lavanda y bergamota; las Notas de Corazón son iris, jazmín sambac (sampaguita) y rosa; las Notas de Fondo son vainilla de Tahití, cumarina, sándalo australiano, regaliz, benjuí y pachulí. </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.55997.jpg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Guerlain Eau de Parfum Intense de Guerlain es una fragancia de la familia olfativa Ámbar Amaderada para Mujeres. Mon Guerlain Eau de Parfum Intense se lanzó en 2019. Mon Guerlain Eau de Parfum Intense fue creada por Thierry Wasser y Delphine Jelk. Las Notas de Salida son lavanda, mandarina y bergamota; las Notas de Corazón son vainilla de Tahití, vainilla de Madagascar, iris, jazmín sambac (sampaguita) y rosa; las Notas de Fondo son cumarina, pachulí, regaliz, benjuí, sándalo australiano y almizcle blanco. </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.65546.jpg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Guerlain Sparkling Bouquet de Guerlain es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Mon Guerlain Sparkling Bouquet se lanzó en 2021. Mon Guerlain Sparkling Bouquet fue creada por Thierry Wasser y Delphine Jelk. Las Notas de Salida son pera, bergamota y mandarina; las Notas de Corazón son lavanda, peonía y jazmín sambac (sampaguita); las Notas de Fondo son vainilla de Tahití, almizcle blanco y sándalo. </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.43675.jpg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guess 1981 de Guess es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Guess 1981 se lanzó en 2017. Las Notas de Salida son violeta y almizcle ambreta; las Notas de Corazón son pera, sándalo y jazmín; las Notas de Fondo son almizcle, cedro y ámbar. </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1591.jpg</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guess for Women de Guess es una fragancia de la familia olfativa Floral Frutal para Mujeres. Guess for Women se lanzó en 2006. La Nariz detrás de esta fragrancia es Maurice Roucel. Las Notas de Salida son manzana verde, fresa, bergamota y naranja tangerina; las Notas de Corazón son magnolia, peonía, fresia, lirio de los valles (muguete), bayas rojas, jazmín, durazno (melocotón) y ylang-ylang; las Notas de Fondo son almizcle, cedro, ámbar y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1944.jpg</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guess By Marciano de Guess es una fragancia de la familia olfativa Floral Frutal para Mujeres. La Nariz detrás de esta fragrancia es Barbara Zoebelein. Las Notas de Salida son curasao, carambola, cardamomo y toronja (pomelo); las Notas de Corazón son madreselva, jazmín y peonía; las Notas de Fondo son vainilla, almizcle y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.5897.jpg</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guess by Marciano for Men de Guess es una fragancia de la familia olfativa para Hombres. Guess by Marciano for Men se lanzó en 2009. </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.49883.jpg</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guess Men (Original) de Guess es una fragancia de la familia olfativa Aromática Fougère para Hombres. Guess Men (Original) se lanzó en 1991. La Nariz detrás de esta fragrancia es James Bell. Las Notas de Salida son esclarea, naranja, bergamota, limón (lima ácida) y aldehídos; las Notas de Corazón son clavo de olor, lavanda, canela, raíz de lirio, jazmín, cedro y abeto; las Notas de Fondo son cuero, pachulí, ládano, ámbar, sándalo, musgo de roble, vainilla y vetiver. </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.19219.jpg</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guess Night de Guess es una fragancia de la familia olfativa Amaderada para Hombres. Guess Night se lanzó en 2013. Guess Night fue creada por Antoine Lie y Francis Kurkdjian. Las Notas de Salida son pimienta, toronja (pomelo) y elemí; las Notas de Corazón son geranio, cedro y vetiver; las Notas de Fondo son vaina de vainilla negra, ládano y pachulí. </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3697.jpg</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halston Z14 de Halston es una fragancia de la familia olfativa Cuero para Hombres. Halston Z14 se lanzó en 1974. Halston Z14 fue creada por Vincent Marcello y Max Gavarry. Las Notas de Salida son ciprés, limón (lima ácida), bergamota, notas verdes, albahaca y gardenia; las Notas de Corazón son canela, vetiver, pachulí, cilantro, cedro, geranio y jazmín; las Notas de Fondo son cuero, musgo de roble, benjuí, almizcle, ámbar y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17.jpg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Terre d'Hermès de Hermès es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Terre d'Hermès se lanzó en 2006. La Nariz detrás de esta fragrancia es Jean-Claude Ellena. Las Notas de Salida son naranja y toronja (pomelo); las Notas de Corazón son pimienta, pelargonio y Sílex; las Notas de Fondo son vetiver, cedro, pachulí y benjuí. Este perfume es el ganador del premio FiFi Award Fragrance Of The Year Men`s Luxe 2007.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.383.jpg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boss Bottled de Hugo Boss es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Boss Bottled se lanzó en 1998. Boss Bottled fue creada por Annick Menardo y Christian Dussoulier. Las Notas de Salida son manzana, ciruela, limón (lima ácida), bergamota, musgo de roble y geranio; las Notas de Corazón son canela, caoba y clavel; las Notas de Fondo son vainilla, sándalo, cedro, vetiver y olivo. </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.383.jpg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boss Bottled de Hugo Boss es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Boss Bottled se lanzó en 1998. Boss Bottled fue creada por Annick Menardo y Christian Dussoulier. Las Notas de Salida son manzana, ciruela, limón (lima ácida), bergamota, musgo de roble y geranio; las Notas de Corazón son canela, caoba y clavel; las Notas de Fondo son vainilla, sándalo, cedro, vetiver y olivo. </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.75183.jpg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boss Bottled Parfum de Hugo Boss es una fragancia de la familia olfativa Cuero para Hombres. Esta fragrancia es nueva. Boss Bottled Parfum se lanzó en 2022. Boss Bottled Parfum fue creada por Suzy Le Helley y Annick Menardo. Las Notas de Salida son incienso de olíbano (franquincienso) y mandarina; las Notas de Corazón son árbol de la higuera y raíz de lirio; las Notas de Fondo son cedro y cuero. </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.12311.jpg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugo Just Different de Hugo Boss es una fragancia de la familia olfativa Aromática para Hombres. Hugo Just Different se lanzó en 2011. Las Notas de Salida son menta y manzana Granny Smith; las Notas de Corazón son albahaca, fresia y cilantro; las Notas de Fondo son cachemira, pachulí, ládano y incienso de olíbano (franquincienso). </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1509.jpg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hugo XY de Hugo Boss es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Hugo XY se lanzó en 2007. Las Notas de Salida son cedro, hojas del peral y bergamota; las Notas de Corazón son menta y albahaca; las Notas de Fondo son cedro, almizcle y pachulí. </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.721.jpg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Eau d'Issey Pour Homme de Issey Miyake es una fragancia de la familia olfativa Amaderada Acuática para Hombres. L'Eau d'Issey Pour Homme se lanzó en 1994. La Nariz detrás de esta fragrancia es Jacques Cavallier. Las Notas de Salida son yuzu, limón (lima ácida), bergamota, cedrón (hierba luisa, verbena de olor), mandarina, ciprés, calone, cilantro, estragón y salvia; las Notas de Corazón son flor de loto azul, nuez moscada, lirio de los valles (muguete), geranio bourbon, azafrán, canela de Ceylan y reseda (miñoneta); las Notas de Fondo son vetiver de Tahití, almizcle, cedro, sándalo, ámbar y tabaco. </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.11793.jpg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic Black de Jaguar es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Jaguar Classic Black se lanzó en 2009. La Nariz detrás de esta fragrancia es Dominique Preyssas. Las Notas de Salida son manzana Granny Smith, naranja amarga y mandarina; las Notas de Corazón son té, agua de mar, geranio, nuez moscada y cardamomo; las Notas de Fondo son almizcle blanco, cedro de Virginia, haba tonka, vetiver, sándalo y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.11793.jpg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic Black de Jaguar es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Jaguar Classic Black se lanzó en 2009. La Nariz detrás de esta fragrancia es Dominique Preyssas. Las Notas de Salida son manzana Granny Smith, naranja amarga y mandarina; las Notas de Corazón son té, agua de mar, geranio, nuez moscada y cardamomo; las Notas de Fondo son almizcle blanco, cedro de Virginia, haba tonka, vetiver, sándalo y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.45334.jpg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic Chromite de Jaguar es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Jaguar Classic Chromite se lanzó en 2017. Las Notas de Salida son manzana verde, incienso y mandarina; las Notas de Corazón son cedro y pachulí; las Notas de Fondo son ambroxan, haba tonka y praliné. </t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.65792.jpg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic Electric Sky de Jaguar es una fragancia de la familia olfativa Aromática Fougère para Hombres. Jaguar Classic Electric Sky se lanzó en 2020. La Nariz detrás de esta fragrancia es Alexandra Monet. Las Notas de Salida son hojas de violeta, toronja (pomelo) y pimienta de Sichuan; las Notas de Corazón son lavanda, geranio y esclarea; las Notas de Fondo son Amberwood, musgo de roble y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17379.jpg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic Gold de Jaguar es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Jaguar Classic Gold se lanzó en 2013. La Nariz detrás de esta fragrancia es Dominique Preyssas. Las Notas de Salida son manzana, bergamota y lima (limón verde); las Notas de Corazón son flor de azahar del naranjo y madera de teca; las Notas de Fondo son vainilla, pachulí y almizcle. </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17380.jpg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic Red de Jaguar es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Jaguar Classic Red se lanzó en 2013. La Nariz detrás de esta fragrancia es Karine Dubreuil-Sereni. Las Notas de Salida son frambuesa, moras azules y bergamota; las Notas de Corazón son pimienta negra, jazmín y notas ozónicas; las Notas de Fondo son haba tonka, ámbar, vainilla, cedro y pachulí. </t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.72449.jpg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Era de Jaguar es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Esta fragrancia es nueva. Jaguar Era se lanzó en 2022. Las Notas de Salida son mandarina, bergamota y limón (lima ácida); las Notas de Corazón son mojito, piña, especias, cardamomo, anís, lavanda y geranio; las Notas de Fondo son sándalo, ámbar, cedro de Virginia, agujas de cedro, pachulí, cedro y almizcle. </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.22317.jpg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar For Men Evolution de Jaguar es una fragancia de la familia olfativa Aromática Fougère para Hombres. Jaguar For Men Evolution se lanzó en 2013. La Nariz detrás de esta fragrancia es Dominique Preyssas. Las Notas de Salida son menta, bergamota, naranja y albahaca; las Notas de Corazón son esclarea, lavanda, cardamomo y manzana; las Notas de Fondo son sándalo, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.65793.jpg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar For Men Ultimate Power de Jaguar es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Jaguar For Men Ultimate Power se lanzó en 2019. La Nariz detrás de esta fragrancia es Sidonie Lancesseur. Las Notas de Salida son menta, limón (lima ácida) y bergamota; las Notas de Corazón son hojas verdes, manzana y jengibre; las Notas de Fondo son maderas blancas, pachulí y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.6809.jpg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic de Jaguar es una fragancia de la familia olfativa Aromática Fougère para Hombres. Jaguar Classic se lanzó en 2002. Las Notas de Salida son anís estrellado, lavanda, bayas de enebro, naranja, mandarina, bergamota y albahaca; las Notas de Corazón son jengibre, flor de azahar del naranjo y flor de loto; las Notas de Fondo son almizcle blanco, sándalo y benjuí. </t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.6809.jpg</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaguar Classic de Jaguar es una fragancia de la familia olfativa Aromática Fougère para Hombres. Jaguar Classic se lanzó en 2002. Las Notas de Salida son anís estrellado, lavanda, bayas de enebro, naranja, mandarina, bergamota y albahaca; las Notas de Corazón son jengibre, flor de azahar del naranjo y flor de loto; las Notas de Fondo son almizcle blanco, sándalo y benjuí. </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39582.jpg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classique Essence de Parfum de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Classique Essence de Parfum se lanzó en 2016. La Nariz detrás de esta fragrancia es Daphné Bugey. Las Notas de Salida son naranja tangerina, aldehídos y jengibre; las Notas de Corazón son flor de azahar del naranjo y jazmín sambac (sampaguita); las Notas de Fondo son crema batida, vainilla, benjuí, madera de cachemira y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.427.jpg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classique de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Classique se lanzó en 1993. La Nariz detrás de esta fragrancia es Jacques Cavallier. Las Notas de Salida son flor de azahar del naranjo, anís estrellado, rosa, mandarina, pera y bergamota; las Notas de Corazón son ylang-ylang, jengibre, orquídea, nardos, iris y ciruela; las Notas de Fondo son vainilla, ámbar, almizcle, canela y sándalo. </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.430.jpg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Male de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Le Male se lanzó en 1995. La Nariz detrás de esta fragrancia es Francis Kurkdjian. Las Notas de Salida son lavanda, menta, cardamomo, bergamota y abrótano; las Notas de Corazón son canela, flor de azahar del naranjo y alcaravea; las Notas de Fondo son vainilla, haba tonka, ámbar, sándalo y cedro. </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39583.jpg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Male Essence de Parfum de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Le Male Essence de Parfum se lanzó en 2016. La Nariz detrás de esta fragrancia es Quentin Bisch. Las Notas de Salida son cardamomo, pimienta, bergamota y abrótano; las Notas de Corazón son cuero, lavanda, canela y salvia; las Notas de Fondo son vainilla, cumarina, Amberwood, almizcle y caña agria (cañuela santa). </t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39583.jpg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Male Essence de Parfum de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Le Male Essence de Parfum se lanzó en 2016. La Nariz detrás de esta fragrancia es Quentin Bisch. Las Notas de Salida son cardamomo, pimienta, bergamota y abrótano; las Notas de Corazón son cuero, lavanda, canela y salvia; las Notas de Fondo son vainilla, cumarina, Amberwood, almizcle y caña agria (cañuela santa). </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.45651.jpg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scandal de Jean Paul Gaultier es una fragancia de la familia olfativa Chipre Floral para Mujeres. Scandal se lanzó en 2017. Scandal fue creada por Daphné Bugey, Fabrice Pellegrin y Christophe Raynaud. Las Notas de Salida son naranja sanguina y mandarina; las Notas de Corazón son miel, gardenia, flor de azahar del naranjo, jazmín y durazno (melocotón); las Notas de Fondo son cera de abeja, caramelo, pachulí y regaliz. </t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>amielado</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.68074.jpg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scandal Pour Homme de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Scandal Pour Homme se lanzó en 2021. Scandal Pour Homme fue creada por Quentin Bisch, Christophe Raynaud y Natalie Gracia-Cetto. Las Notas de Salida son mandarina y esclarea; las Notas de Corazón son caramelo y haba tonka; la Nota de Fondo es vetiver. </t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>caramelo</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.60942.jpg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So Scandal! de Jean Paul Gaultier es una fragancia de la familia olfativa Floral Frutal para Mujeres. So Scandal! se lanzó en 2020. So Scandal! fue creada por Fabrice Pellegrin y Daphné Bugey. </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>nardos</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.30947.jpg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ultra Male de Jean Paul Gaultier es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Ultra Male se lanzó en 2015. La Nariz detrás de esta fragrancia es Francis Kurkdjian. Las Notas de Salida son pera, lavanda, menta, bergamota y limón (lima ácida); las Notas de Corazón son canela, esclarea y alcaravea; las Notas de Fondo son vaina de vainilla negra, ámbar, pachulí y cedro. </t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.13532.jpg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sexy Boy Sport de Jeanne Arthes es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Sexy Boy Sport se lanzó en 2011. Las Notas de Salida son menta y toronja (pomelo); las Notas de Corazón son tomillo y cardamomo; las Notas de Fondo son almizcle y sándalo. </t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.49723.jpg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jimmy Choo Man Blue de Jimmy Choo es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Jimmy Choo Man Blue se lanzó en 2018. La Nariz detrás de esta fragrancia es Nathalie Lorson. Las Notas de Salida son lavanda, pimienta negra, esclarea y bergamota; las Notas de Corazón son ámbar gris, cuero, ciprés, manzana y piña; las Notas de Fondo son vainilla, sándalo, vetiver y pachulí. </t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.51831.jpg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enduring Glow de Jennifer Lopez es una fragancia de la familia olfativa Floral Frutal para Mujeres. Enduring Glow se lanzó en 2018. Las Notas de Salida son pera, lichi y bergamota; las Notas de Corazón son pétalos de magnolia, peonía rosa y hojas de violeta; las Notas de Fondo son sándalo, almizcle y ámbar cristalino. </t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.869.jpg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glow de Jennifer Lopez es una fragancia de la familia olfativa Floral para Mujeres. Glow se lanzó en 2002. Glow fue creada por Louise Turner y Catherine Walsh. Las Notas de Salida son neroli, flor de azahar del naranjo y toronja (pomelo); las Notas de Corazón son jazmín, rosa y nardos; las Notas de Fondo son almizcle, sándalo, raíz de lirio, vainilla y ámbar. </t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.873.jpg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Live de Jennifer Lopez es una fragancia de la familia olfativa Floral Frutal para Mujeres. Live se lanzó en 2005. La Nariz detrás de esta fragrancia es Dominique Ropion. Las Notas de Salida son piña, limón siciliano (lima siciliana) y naranja italiana; las Notas de Corazón son flor del grosellero rojo, peonía y violeta; las Notas de Fondo son caramelo, sándalo, haba tonka y vainilla. </t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.874.jpg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Live Luxe de Jennifer Lopez es una fragancia de la familia olfativa Floral Frutal para Mujeres. Live Luxe se lanzó en 2006. La Nariz detrás de esta fragrancia es Claudette Belnavis. Las Notas de Salida son melón, durazno (melocotón) y pera; las Notas de Corazón son fresia rosa, madreselva y lirio de los valles (muguete); las Notas de Fondo son vainilla, almizcle, sándalo y ámbar. </t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.69243.jpg</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One de Jennifer Lopez es una fragancia de la familia olfativa para Mujeres. One se lanzó en 2021. Las Notas de Salida son pimienta rosa, fresia y flor del duraznero (flor del melocotonero); las Notas de Corazón son Clearwood, cedro y jazmín; las Notas de Fondo son sándalo, gamuza y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.57171.jpg</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Promise de Jennifer Lopez es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Promise se lanzó en 2019. Las Notas de Salida son Pera Nashi, tangerina italiana y pimienta rosa; las Notas de Corazón son madreselva, jazmín sambac (sampaguita) y raíz de lirio; las Notas de Fondo son madera de cachemira, sándalo y ámbar cristalino. </t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.868.jpg</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Still de Jennifer Lopez es una fragancia de la familia olfativa Floral para Mujeres. Still se lanzó en 2003. La Nariz detrás de esta fragrancia es Michel Girard. Las Notas de Salida son té Earl Grey, pimienta blanca, mandarina, manzana y arroz; las Notas de Corazón son jazmín, lirio de los valles (muguete), fresia, madreselva, flor de azahar del naranjo y rosa; las Notas de Fondo son pimienta, almizcle, sándalo, iris y ámbar. </t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.7523.jpg</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Musk de Jovan es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Musk se lanzó en 1972. </t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2701.jpg</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dirty English for Men de Juicy Couture es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Dirty English for Men se lanzó en 2008. </t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>oud</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.4410.jpg</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viva la Juicy de Juicy Couture es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Viva la Juicy se lanzó en 2008. Las Notas de Salida son bayas silvestres y mandarina; las Notas de Corazón son gardenia, madreselva y jazmín; las Notas de Fondo son caramelo, praliné, vainilla, ámbar y sándalo. </t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>caramelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.18188.jpg</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viva La Juicy Noir de Juicy Couture es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Viva La Juicy Noir se lanzó en 2013. Las Notas de Salida son bayas silvestres y mandarina; las Notas de Corazón son gardenia, madreselva y jazmín; las Notas de Fondo son caramelo, vainilla, ámbar y sándalo. </t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.33567.jpg</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viva La Juicy Rose de Juicy Couture es una fragancia de la familia olfativa Floral Frutal para Mujeres. Viva La Juicy Rose se lanzó en 2015. Las Notas de Salida son pera, mandarina y jazmín; las Notas de Corazón son rosa, peonía y jazmín sambac (sampaguita); las Notas de Fondo son ambroxan, raíz de lirio y benjuí. </t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.72.jpg</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flower by Kenzo de Kenzo es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Flower by Kenzo se lanzó en 2000. Flower by Kenzo fue creada por Alberto Morillas y Christian Dussoulier. Las Notas de Salida son rosa de Bulgaria (rosa Damascena de Bulgaria), flor del espino, grosellas negras y mandarina; las Notas de Corazón son violeta de Parma, rosa, opopónaco y jazmín; las Notas de Fondo son vainilla, almizcle blanco y incienso. </t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>violeta</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.52172.jpg</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Te Quiero de La Martina es una fragancia de la familia olfativa Aromática Acuática para Hombres. Te Quiero se lanzó en 2018. Las Notas de Salida son bergamota, lavanda y nuez moscada; las Notas de Corazón son flor de azahar del naranjo, ámbar y pachulí; las Notas de Fondo son almizcle, vetiver y cuero. </t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.11043.jpg</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eau de Lacoste L.12.12. White de Lacoste Fragrances es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Eau de Lacoste L.12.12. White se lanzó en 2011. Las Notas de Salida son toronja (pomelo), romero y cardamomo; las Notas de Corazón son ylang-ylang y nardos; las Notas de Fondo son gamuza, cedro de Virginia, vetiver y cuero. </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.18274.jpg</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eau de Lacoste L.12.12. Noir de Lacoste Fragrances es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Eau de Lacoste L.12.12. Noir se lanzó en 2013. La Nota de Salida es sandía; las Notas de Corazón son albahaca, lavanda y cedrón (hierba luisa); las Notas de Fondo son chocolate oscuro, cachemira, pachulí y cumarina. </t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1309.jpg</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagerfeld Classic de Karl Lagerfeld es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Lagerfeld Classic se lanzó en 1978. La Nariz detrás de esta fragrancia es Ron Winnegrad. Las Notas de Salida son aldehídos, estragón, esclarea, bergamota, limón (lima ácida) y notas verdes; las Notas de Corazón son tabaco, sándalo, raíz de lirio, pachulí, rosa, cedro y jazmín; las Notas de Fondo son ámbar, almizcle, vainilla, musgo de roble y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.26247.jpg</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amethyst Eclat de Lalique es una fragancia de la familia olfativa Floral Frutal para Mujeres. Amethyst Eclat se lanzó en 2014. La Nariz detrás de esta fragrancia es Nathalie Lorson. Las Notas de Salida son frambuesa, grosellas negras y pera; las Notas de Corazón son peonía, rosa y magnolia; las Notas de Fondo son zarzamora (frambuesa negra), almizcle y oca violeta. </t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.57340.jpg</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blue Rise de Lalique es una fragancia de la familia olfativa Aromática Acuática para Mujeres. Blue Rise se lanzó en 2019. La Nariz detrás de esta fragrancia es Vincent Ricord. </t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>iris</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1834.jpg</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encre Noire de Lalique es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Encre Noire se lanzó en 2006. La Nariz detrás de esta fragrancia es Nathalie Lorson. La Nota de Salida es ciprés; la Nota de Corazón es vetiver; las Notas de Fondo son madera de cachemira y almizcle. </t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>terrosos</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.21369.jpg</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encre Noire Sport de Lalique es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Encre Noire Sport se lanzó en 2013. La Nariz detrás de esta fragrancia es Nathalie Lorson. Las Notas de Salida son toronja (pomelo), bergamota y nuez moscada; las Notas de Corazón son ciprés, notas acuosas y lavanda; las Notas de Fondo son vetiver Bourbon, vetiver de Haití, madera de cachemira y almizcle. </t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.62760.jpg</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperial Green de Lalique es una fragancia de la familia olfativa Chipre Floral para Hombres. Imperial Green se lanzó en 2020. Imperial Green fue creada por Nathalie Lorson y Julien Plos. La Nota de Salida es lavanda; la Nota de Corazón es flor de azahar del naranjo; las Notas de Fondo son ambroxan, vetiver y pachulí. </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.57339.jpg</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infinite Shine de Lalique es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Infinite Shine se lanzó en 2019. La Nariz detrás de esta fragrancia es Corrine Cachen. </t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.16931.jpg</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amour de Lalique es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. L'Amour se lanzó en 2013. La Nariz detrás de esta fragrancia es Nathalie Lorson. Las Notas de Salida son neroli, bergamota y rosa; las Notas de Corazón son jazmín, gardenia y nardos; las Notas de Fondo son almizcle, cedro y sándalo. </t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>nardos</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39442.jpg</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Insoumis de Lalique es una fragancia de la familia olfativa Amaderada Aromática para Hombres. L'Insoumis se lanzó en 2016. La Nariz detrás de esta fragrancia es Fabrice Pellegrin. Las Notas de Salida son albahaca, ron y bergamota; las Notas de Corazón son esclarea, lavanda y pimienta negra; las Notas de Fondo son notas amaderadas, vetiver de Haití, musgo y pachulí. </t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.50099.jpg</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Insoumis Ma Force de Lalique es una fragancia de la familia olfativa Amaderada Aromática para Hombres. L'Insoumis Ma Force se lanzó en 2018. La Nariz detrás de esta fragrancia es Fabrice Pellegrin. Las Notas de Salida son manzana verde, cítricos, cardamomo y limón (lima ácida); las Notas de Corazón son lavanda, hojas de violeta, alcanfor y romero; las Notas de Fondo son notas amaderadas, madera de cachemira y ámbar. </t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3785.jpg</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lalique White de Lalique es una fragancia de la familia olfativa Cítrica Aromática para Hombres. Lalique White se lanzó en 2008. La Nariz detrás de esta fragrancia es Christine Nagel. Las Notas de Salida son hojas del limonero, bergamota, tamarindo y elemí; las Notas de Corazón son pimienta blanca, nuez moscada, cardamomo y violeta; las Notas de Fondo son cedro, almizcle, musgo de roble y ámbar. </t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.30358.jpg</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Woody Gold de Lalique es una fragancia de la familia olfativa Chipre Floral para Hombres y Mujeres. Woody Gold se lanzó en 2015. La Nariz detrás de esta fragrancia es Mathilde Bijaoui. Las Notas de Salida son bergamota y mandarina; la Nota de Corazón es neroli; las Notas de Fondo son absoluto de vainilla, Amberwood, cachemira y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.55795.jpg</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idôle de Lancôme es una fragancia de la familia olfativa Chipre Floral para Mujeres. Idôle se lanzó en 2019. Idôle fue creada por Shyamala Maisondieu, Adriana Medina-Baez y Nadege le Garlantezec. Las Notas de Salida son pera, bergamota y pimienta rosa; las Notas de Corazón son rosa y jazmín; las Notas de Fondo son almizcle blanco, vainilla, pachulí y cedro. </t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.14982.jpg</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Vie Est Belle de Lancôme es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. La Vie Est Belle se lanzó en 2012. La Vie Est Belle fue creada por Olivier Polge, Dominique Ropion y Anne Flipo. Las Notas de Salida son grosellas negras y pera; las Notas de Corazón son iris, jazmín y flor de azahar del naranjo; las Notas de Fondo son praliné, vainilla, pachulí y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.53345.jpg</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Vie est Belle en Rose de Lancôme es una fragancia de la familia olfativa Floral Frutal para Mujeres. La Vie est Belle en Rose se lanzó en 2019. La Vie est Belle en Rose fue creada por Anne Flipo y Dominique Ropion. Las Notas de Salida son frambuesa, bayas rojas, pimienta rosa y bergamota; las Notas de Corazón son rosa de Damasco, rosa, peonía y lirio de los valles (muguete); las Notas de Fondo son pachulí, almizcle, iris y sándalo. </t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.59326.jpg</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Vie Est Belle Intensément de Lancôme es una fragancia de la familia olfativa Ámbar Floral para Mujeres. La Vie Est Belle Intensément se lanzó en 2020. La Vie Est Belle Intensément fue creada por Anne Flipo y Nicolas Beaulieu. Las Notas de Salida son frambuesa, pimienta rosa y bergamota; las Notas de Corazón son heliotropo, flor de azahar del naranjo y jazmín sambac (sampaguita); las Notas de Fondo son vainilla, iris, benjuí, pachulí y sándalo. </t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.172.jpg</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trésor de Lancôme es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Trésor se lanzó en 1990. La Nariz detrás de esta fragrancia es Sophia Grojsman. Las Notas de Salida son durazno (melocotón), rosa, flor del albaricoquero, lila, piña, lirio de los valles (muguete) y bergamota; las Notas de Corazón son rosa, iris, heliotropo y jazmín; las Notas de Fondo son durazno (melocotón), chabacano, vainilla, sándalo, ámbar y almizcle. </t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.82379.jpg</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lahdath de Lattafa Perfumes es una fragancia de la familia olfativa Almizcle Floral Amaderado para Hombres y Mujeres.  Lahdath se lanzó en 2020. Las Notas de Salida son rosa y limón (lima ácida); las Notas de Corazón son rosa y caramelo; las Notas de Fondo son cedro, almizcle y vainilla. </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.84243.jpg</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Safwaan L'autre Oud de Lattafa Perfumes es una fragancia de la familia olfativa Almizcle Amaderado Floral para Hombres y Mujeres. Safwaan L'autre Oud se lanzó durante la 2020's. La Nota de Salida es rosa; las Notas de Corazón son notas especiadas y ámbar; las Notas de Fondo son notas amaderadas y madera de oud. </t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.82693.jpg</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thouq de Lattafa Perfumes es una fragancia de la familia olfativa Floral para Hombres y Mujeres. Esta fragrancia es nueva. Las Notas de Salida son bergamota y lichi; las Notas de Corazón son rosa y incienso; las Notas de Fondo son vetiver y ámbar. </t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ahumado</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1778.jpg</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curve for Men de Liz Claiborne es una fragancia de la familia olfativa Aromática Verde para Hombres. Curve for Men se lanzó en 1996. La Nariz detrás de esta fragrancia es Jean Claude Delville. Las Notas de Salida son piña, lavanda, limón (lima ácida), bayas de enebro y neroli; las Notas de Corazón son bergamota, cactus, jengibre, salvia, violeta, cardamomo y cilantro; las Notas de Fondo son almizcle, sándalo, caoba, cedro, pimienta, ámbar y vetiver. </t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.24774.jpg</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lemon Line de Mancera es una fragancia de la familia olfativa Cítrica Aromática para Hombres y Mujeres. Lemon Line se lanzó en 2014. La Nariz detrás de esta fragrancia es Pierre Montale. Las Notas de Salida son limón (lima ácida), lavanda y naranja; las Notas de Corazón son geranio, flores blancas y ámbar; las Notas de Fondo son musgo de roble y almizcle blanco. </t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.25289.jpg</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daisy Dream de Marc Jacobs es una fragancia de la familia olfativa Floral Frutal para Mujeres. Daisy Dream se lanzó en 2014. Daisy Dream fue creada por Alberto Morillas y Ann Gottlieb. Las Notas de Salida son zarzamora (frambuesa negra), pera y toronja (pomelo); las Notas de Corazón son glicinia, lichi y jazmín; las Notas de Fondo son almizcle, madera blanca y Agua de coco. </t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://fimgs.net/mdimg/perfume/375x500.1361.jpg</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Daisy by Marc Jacobs is a Floral Woody Musk fragrance for women. Daisy was launched in 2007. The nose behind this fragrance is Alberto Morillas. Top notes are Violet Leaf, Blood Grapefruit and Strawberry; middle notes are Violet, Gardenia and Jasmine; base notes are Musk, White Woods and Vanilla. This perfume is the winner of 2 awards: FiFi Award Fragrance Of The Year Women`s Luxe 2008 and FiFi Awards Best Packaging Women`s Prestige 2008.</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>white floral</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>ozonic</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>powdery</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.49108.jpg</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daisy Love de Marc Jacobs es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Daisy Love se lanzó en 2018. La Nariz detrás de esta fragrancia es Alberto Morillas. La Nota de Salida es Camemoro; la Nota de Corazón es margarita; las Notas de Fondo son almizcle de cachemira y trozos de madera a la deriva. </t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.18393.jpg</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Irish Leather de Memo Paris es una fragancia de la familia olfativa Cuero para Hombres y Mujeres. Irish Leather se lanzó en 2013. La Nariz detrás de esta fragrancia es Alienor Massenet. </t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.12139.jpg</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shams Oud de Memo Paris es una fragancia de la familia olfativa Ámbar para Hombres y Mujeres. Shams Oud se lanzó en 2011. Las Notas de Salida son pimienta, azafrán y jengibre; las Notas de Corazón son cipriol (nagarmota) y vetiver; las Notas de Fondo son madera de oud, ládano francés, bálsamo de Tolú, styrax, abedul y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66266.jpg</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Explorer Ultra Blue de Montblanc es una fragancia de la familia olfativa Cítrica Aromática para Hombres. Explorer Ultra Blue se lanzó en 2021. Explorer Ultra Blue fue creada por Jordi Fernández, Olivier Pescheux y Antoine Maisondieu. Las Notas de Salida son bergamota de Sicilia, pimienta rosa y frutas exóticas; las Notas de Corazón son notas marinas y ámbar gris; las Notas de Fondo son notas amaderadas, hojas de pachulí de Indonesia y cuero. </t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.11784.jpg</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legend de Montblanc es una fragancia de la familia olfativa Aromática Fougère para Hombres. Legend se lanzó en 2011. Legend fue creada por Olivier Pescheux y Celine Perdriel. Las Notas de Salida son lavanda, piña, bergamota y cedrón (hierba luisa, verbena de olor); las Notas de Corazón son manzana roja, frutos secos, musgo de roble, geranio, cumarina y rosa; las Notas de Fondo son haba tonka y sándalo. </t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.11784.jpg</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legend de Montblanc es una fragancia de la familia olfativa Aromática Fougère para Hombres. Legend se lanzó en 2011. Legend fue creada por Olivier Pescheux y Celine Perdriel. Las Notas de Salida son lavanda, piña, bergamota y cedrón (hierba luisa, verbena de olor); las Notas de Corazón son manzana roja, frutos secos, musgo de roble, geranio, cumarina y rosa; las Notas de Fondo son haba tonka y sándalo. </t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.30509.jpg</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Honey Aoud de Montale es una fragancia de la familia olfativa Ámbar Vainilla para Hombres y Mujeres. Honey Aoud se lanzó en 2015. La Nariz detrás de esta fragrancia es Pierre Montale. </t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>amielado</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>oud</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.61494.jpg</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oud Tobacco de Montale es una fragancia de la familia olfativa Ámbar Amaderada para Hombres y Mujeres. Oud Tobacco se lanzó en 2020. Las Notas de Salida son zumaque, cítricos y comino; las Notas de Corazón son madera de oud, flor de azahar del naranjo y incienso; las Notas de Fondo son tabaco, haba tonka y madera de oud. </t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.4059.jpg</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanilla Extasy de Montale es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. Vanilla Extasy se lanzó en 2008. La Nariz detrás de esta fragrancia es Pierre Montale. Las Notas de Salida son chabacano y flor del albaricoquero; las Notas de Corazón son vainilla, ylang-ylang y jazmín; las Notas de Fondo son benjuí, sándalo, resinas y caoba. </t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.727.jpg</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheap &amp; Chic de Moschino es una fragancia de la familia olfativa Floral para Mujeres. Cheap &amp; Chic se lanzó en 1995. Las Notas de Salida son yuzu, bergamota, petit grain y palo de rosa de Brasil; las Notas de Corazón son ciclamen (violeta persa), nenúfar (lirio de agua), rosa, peonía, violeta y jazmín; las Notas de Fondo son almizcle, iris, ámbar gris, vetiver, orquídea, sándalo, haba tonka y vainilla. </t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66098.jpg</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toy 2 Bubble Gum de Moschino es una fragancia de la familia olfativa Floral Frutal para Mujeres. Toy 2 Bubble Gum se lanzó en 2021. La Nariz detrás de esta fragrancia es Olivier Pescheux. Las Notas de Salida son Frutas confitadas, naranja amarga y limón (lima ácida); las Notas de Corazón son Goma de mascar, rosa de Bulgaria (rosa Damascena de Bulgaria), moras azules, durazno (melocotón), flor del duraznero (flor del melocotonero), canela y jengibre; las Notas de Fondo son almizcle, ambroxan y cedro. </t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66098.jpg</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toy 2 Bubble Gum de Moschino es una fragancia de la familia olfativa Floral Frutal para Mujeres. Toy 2 Bubble Gum se lanzó en 2021. La Nariz detrás de esta fragrancia es Olivier Pescheux. Las Notas de Salida son Frutas confitadas, naranja amarga y limón (lima ácida); las Notas de Corazón son Goma de mascar, rosa de Bulgaria (rosa Damascena de Bulgaria), moras azules, durazno (melocotón), flor del duraznero (flor del melocotonero), canela y jengibre; las Notas de Fondo son almizcle, ambroxan y cedro. </t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2479.jpg</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nautica de Nautica es una fragancia de la familia olfativa Amaderada Chipre para Hombres. Nautica se lanzó en 1992. Las Notas de Salida son aldehídos, lima (limón verde), limón (lima ácida), bergamota, neroli, ciprés, estragón, esclarea, cilantro y canela; las Notas de Corazón son jazmín, ciclamen (violeta persa), rosa, geranio y alcaravea; las Notas de Fondo son sándalo, cedro, almizcle, pachulí, musgo de roble y ámbar. </t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.913.jpg</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nautica Voyage de Nautica es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Nautica Voyage se lanzó en 2006. La Nariz detrás de esta fragrancia es Maurice Roucel. Las Notas de Salida son manzana y hojas verdes; las Notas de Corazón son flor de loto y mimosa; las Notas de Fondo son almizcle, cedro, musgo de roble y ámbar. </t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.83523.jpg</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike On Fire de Nike es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Nike On Fire se lanzó en 2021. Las Notas de Salida son pimienta rosa, toronja (pomelo), naranja tangerina y bergamota; las Notas de Corazón son cardamomo, canela y nuez moscada; las Notas de Fondo son haba tonka, vainilla, cedro y ámbar. </t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67079.jpg</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike A Sparkling Day Woman de Nike es una fragancia de la familia olfativa Floral Verde para Mujeres. Nike A Sparkling Day Woman se lanzó en 2020. Las Notas de Salida son mango, grosellas negras y mandarina; las Notas de Corazón son violeta, raíz de lirio y lirio de los valles (muguete); las Notas de Fondo son vainilla, haba tonka y pachulí. </t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67077.jpg</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike A Spicy Attitude Man de Nike es una fragancia de la familia olfativa Cítrica Aromática para Hombres. Nike A Spicy Attitude Man se lanzó en 2020. Las Notas de Salida son bergamota, toronja (pomelo), romero y elemí; las Notas de Corazón son lavanda, notas marinas y cedro; las Notas de Fondo son sándalo, almizcle y Amberwood. </t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67076.jpg</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Aromatic Addiction Man de Nike es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Nike Aromatic Addiction Man se lanzó en 2020. Las Notas de Salida son jengibre, piña y limón (lima ácida); las Notas de Corazón son lavanda, menta y enebro de Virginia; las Notas de Fondo son haba tonka, vetiver y ámbar. </t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.46935.jpg</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Edition Man de Nike es una fragancia de la familia olfativa Amaderada para Hombres. Gold Edition Man se lanzó en 2017. Las Notas de Salida son toronja (pomelo), limón (lima ácida), pimienta rosa y nuez moscada; las Notas de Corazón son vetiver, jengibre, jazmín y cedro; las Notas de Fondo son incienso, pachulí y sándalo. </t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31858.jpg</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Indigo Man de Nike es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Nike Indigo Man se lanzó en 2015. Las Notas de Salida son lavanda, limón (lima ácida) y pimienta; las Notas de Corazón son flor de azahar del naranjo y neroli; las Notas de Fondo son ámbar, ébano, cedro y sándalo. </t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67080.jpg</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Loving Floral Woman de Nike es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Nike Loving Floral Woman se lanzó en 2020. Las Notas de Salida son naranja, bergamota y melón; las Notas de Corazón son jazmín, miel y flor de azahar del naranjo; las Notas de Fondo son pachulí, almizcle, praliné y vainilla. </t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>pachulí</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67072.jpg</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Ultra Blue Man de Nike es una fragancia de la familia olfativa Ámbar Floral para Hombres. Nike Ultra Blue Man se lanzó en 2020. Las Notas de Salida son limón (lima ácida) y menta; las Notas de Corazón son piña, romero y hojas de violeta; las Notas de Fondo son sal de mar, ámbar y musgo. </t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67073.jpg</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Ultra Green Man de Nike es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Nike Ultra Green Man se lanzó en 2020. Las Notas de Salida son manzana, toronja (pomelo) y bergamota; las Notas de Corazón son miel, notas acuosas, trozos de madera a la deriva y cedro; las Notas de Fondo son vainilla, sándalo, pachulí y almizcle. </t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>amielado</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67074.jpg</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Ultra Pink Woman de Nike es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. Nike Ultra Pink Woman se lanzó en 2020. Las Notas de Salida son pera, pimienta rosa y grosellas negras; las Notas de Corazón son caramelo, coco, jazmín y rosa; las Notas de Fondo son vainilla, benjuí, heliotropo y pachulí. </t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>caramelo</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67075.jpg</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Ultra Purple Woman de Nike es una fragancia de la familia olfativa Floral Frutal para Mujeres. Nike Ultra Purple Woman se lanzó en 2020. Las Notas de Salida son frambuesa, bergamota y pera; las Notas de Corazón son rosa, jazmín y pera; las Notas de Fondo son praliné, almizcle y vainilla. </t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67078.jpg</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nike Urban Wood Man de Nike es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Nike Urban Wood Man se lanzó en 2020. Las Notas de Salida son cardamomo, abrótano, mandarina y limón (lima ácida); las Notas de Corazón son nuez moscada, pimienta, café y flor de azahar del naranjo; las Notas de Fondo son bálsamo del Perú, sándalo, almizcle y abeto balsámico. </t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.75022.jpg</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nina Fleur de Nina Ricci es una fragancia de la familia olfativa Floral Frutal para Mujeres. Esta fragrancia es nueva. Nina Fleur se lanzó en 2022. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son limón italiano (lima italiana) y manzana Granny Smith; las Notas de Corazón son flor de azahar del naranjo y neroli; las Notas de Fondo son almizcle blanco y cedro. </t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.74962.jpg</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fame de Paco Rabanne es una fragancia de la familia olfativa Almizcle Floral Amaderado para Mujeres. Esta fragrancia es nueva. Fame se lanzó en 2022. Fame fue creada por Dora Baghriche, Marie Salamagne, Alberto Morillas y Fabrice Pellegrin. Las Notas de Salida son mango y bergamota; las Notas de Corazón son jazmín y incienso de olíbano (franquincienso); las Notas de Fondo son vainilla y sándalo. </t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.18471.jpg</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Invictus de Paco Rabanne es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Invictus se lanzó en 2013. Invictus fue creada por Veronique Nyberg, Anne Flipo, Olivier Polge y Dominique Ropion. Las Notas de Salida son notas marinas, toronja (pomelo) y mandarina; las Notas de Corazón son hoja de laurel y jazmín; las Notas de Fondo son ámbar gris, madera de gaiac, musgo de roble y pachulí. </t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66336.jpg</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lady Million Fabulous de Paco Rabanne es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Lady Million Fabulous se lanzó en 2021. La Nariz detrás de esta fragrancia es Anne Flipo. Las Notas de Salida son mandarina y pimienta rosa; las Notas de Corazón son nardos, notas solares, jazmín y ylang-ylang; las Notas de Fondo son vainilla, haba tonka y musgo. </t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.65176.jpg</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olympea Blossom de Paco Rabanne es una fragancia de la familia olfativa Chipre Frutal para Mujeres. Olympea Blossom se lanzó en 2021. Las Notas de Salida son rosa de Damasco y pimienta rosa; las Notas de Corazón son pera, sorbete y grosellas negras; las Notas de Fondo son vainilla, sal, cachemira y pachulí. </t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78601.jpg</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olympéa Flora de Paco Rabanne es una fragancia de la familia olfativa Floral para Mujeres. Esta fragrancia es nueva. Olympéa Flora se lanzó en 2023. Las Notas de Salida son grosellas negras, sorbete y pimienta rosa; las Notas de Corazón son rosa y peonía; las Notas de Fondo son vainilla, pachulí, madera de cachemira y sal. </t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3747.jpg</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Million de Paco Rabanne es una fragancia de la familia olfativa Amaderada Especiada para Hombres. 1 Million se lanzó en 2008. 1 Million fue creada por Christophe Raynaud, Olivier Pescheux, Michel Girard y Christian Dussoulier. Las Notas de Salida son mandarina roja, toronja (pomelo) y menta; las Notas de Corazón son canela, notas especiadas y rosa; las Notas de Fondo son ámbar, cuero, notas amaderadas y pachulí hindú. </t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3747.jpg</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Million de Paco Rabanne es una fragancia de la familia olfativa Amaderada Especiada para Hombres. 1 Million se lanzó en 2008. 1 Million fue creada por Christophe Raynaud, Olivier Pescheux, Michel Girard y Christian Dussoulier. Las Notas de Salida son mandarina roja, toronja (pomelo) y menta; las Notas de Corazón son canela, notas especiadas y rosa; las Notas de Fondo son ámbar, cuero, notas amaderadas y pachulí hindú. </t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3747.jpg</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Million de Paco Rabanne es una fragancia de la familia olfativa Amaderada Especiada para Hombres. 1 Million se lanzó en 2008. 1 Million fue creada por Christophe Raynaud, Olivier Pescheux, Michel Girard y Christian Dussoulier. Las Notas de Salida son mandarina roja, toronja (pomelo) y menta; las Notas de Corazón son canela, notas especiadas y rosa; las Notas de Fondo son ámbar, cuero, notas amaderadas y pachulí hindú. </t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.60035.jpg</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Million Parfum de Paco Rabanne es una fragancia de la familia olfativa Cuero para Hombres. 1 Million Parfum se lanzó en 2020. 1 Million Parfum fue creada por Quentin Bisch y Christophe Raynaud. </t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>nardos</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.39314.jpg</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Layton de Parfums de Marly es una fragancia de la familia olfativa Ámbar Floral para Hombres y Mujeres. Layton se lanzó en 2016. La Nariz detrás de esta fragrancia es Hamid Merati-Kashani. Las Notas de Salida son manzana, lavanda, bergamota y mandarina; las Notas de Corazón son geranio, violeta y jazmín; las Notas de Fondo son vainilla, cardamomo, sándalo, pimienta, pachulí y madera de gaiac. </t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.41567.jpg</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Rush Man de Paris Hilton es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Gold Rush Man se lanzó en 2017. Las Notas de Salida son mandarina, cardamomo y bergamota; las Notas de Corazón son lavanda, geranio y salvia; las Notas de Fondo son vainilla, ámbar y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1202.jpg</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can Can de Paris Hilton es una fragancia de la familia olfativa Floral Frutal para Mujeres. Can Can se lanzó en 2007. La Nariz detrás de esta fragrancia es Jean Claude Delville. Las Notas de Salida son nectarina, grosellas negras y clementina; las Notas de Corazón son orquídea silvestre y flor de azahar del naranjo; las Notas de Fondo son ámbar, almizcle y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.41567.jpg</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Rush Man de Paris Hilton es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Gold Rush Man se lanzó en 2017. Las Notas de Salida son mandarina, cardamomo y bergamota; las Notas de Corazón son lavanda, geranio y salvia; las Notas de Fondo son vainilla, ámbar y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1432.jpg</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just Me de Paris Hilton es una fragancia de la familia olfativa Floral Frutal para Mujeres. Just Me se lanzó en 2005. La Nariz detrás de esta fragrancia es Steve DeMercado. Las Notas de Salida son pimienta rosa, frambuesa, violeta y bergamota; las Notas de Corazón son rosa blanca, fresia, iris, lirio de los valles (muguete) y ylang-ylang; las Notas de Fondo son notas amaderadas, sándalo, almizcle y vainilla de Tahití. </t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.50794.jpg</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platinum Rush de Paris Hilton es una fragancia de la familia olfativa para Mujeres. Platinum Rush se lanzó en 2018. La Nariz detrás de esta fragrancia es Frank Voelkl. Las Notas de Salida son pera, mango y manzana roja; las Notas de Corazón son notas acuosas, magnolia, acordes verdes, lirio de los valles (muguete) y notas florales; las Notas de Fondo son almizcle de cachemira, pachulí y ámbar. </t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.50794.jpg</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platinum Rush de Paris Hilton es una fragancia de la familia olfativa para Mujeres. Platinum Rush se lanzó en 2018. La Nariz detrás de esta fragrancia es Frank Voelkl. Las Notas de Salida son pera, mango y manzana roja; las Notas de Corazón son notas acuosas, magnolia, acordes verdes, lirio de los valles (muguete) y notas florales; las Notas de Fondo son almizcle de cachemira, pachulí y ámbar. </t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71ye0R2jrJL._SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Las notas superiores son piña, bergamota, grosella negra y manzana; las notas medias son abedul, pachulí, jazmín marroquí y rosa; las notas de base son almizcle, musgo de roble, ámbar gris y vainilla.</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Piña</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Bergamota</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Grosella negra</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61Ur2Ksm2hL._SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Parte superior: mandarina, pomelo y bergamota. Medio: vetiver, fresia y lavanda. Base: cedro, almizcle y vainilla.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>cedro</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">almizcle </t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>vainilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71LAThG8aBL._SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Notas superiores: jengibre, citronón, lima y manzana. Notas medias: mejorana, lavanda, cardamomo y geranio bourbon. Notas de salida: ámbar, vainilla, sándalo y Marron Glace. Este producto contiene material de alta calidad.</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ámbar</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vainilla </t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Sándalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.tiendajr.com/media/catalog/product/cache/1/image/700x700/9df78eab33525d08d6e5fb8d27136e95/p/e/perfume-merakai-essence-de-patek-maison-100-ml-edp-tiendasjr.jpg</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>La perfección de una composición oriental en medio de sofisticados esplendores. Vainilla cremosa que invade metódicamente notas florales suaves iluminadas por el deslumbramiento de un plomo cítrico. Un colectivo romántico y moderno con una cálida personalidad adictiva.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Vainilla</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Florales suaves</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Plomo cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71Oc60rjqkL._SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Notas altas: grosella negra, lichi y mandarina. Notas medias: rosa búlgara, lirio de agua y tubérosa. Notas de fondo: Ambroxan, Avellana, Almizcle, Vainilla y Pachulí. Este producto contiene material de alta calidad.</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ambroxan</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Avellana</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Almizcle</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://patekmaison.com/cdn/shop/products/Blacktogether_1800x1800.jpg?v=1650914916</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>La frescura de la naturaleza en un día luminoso y fresco se manifiesta plenamente en Blanc, con una deliciosa variedad de frutas bañadas en un ramo de flores. Una mezcla armoniosa de acordes amaderados crea una fragancia audaz y embriagadora donde la ligereza y la profundidad de la naturaleza se unen en un abrazo sensorial.</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Amaderado</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://patekmaison.com/cdn/shop/products/Bleutogether_1800x1800.jpg?v=1650915818</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>El color más raro de la naturaleza se presta a una expresión para aquellos de la forma más rara, Bleu, donde las hierbas vigorizantes se combinan con una mezcla de cítricos frescos y crujientes. Refrescado por una suave combinación de flores y frutas, y envalentonado por fuertes maderas naturales. Una fragancia profunda para personas profundas, donde brilla un carácter único.</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Hierbas vigorizantes</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Cítrico</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Frutal</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://patekmaison.com/cdn/shop/products/BordeauxTogether_50f3fe87-73d6-47f7-8fe9-bffd4dc738db_1800x1800.jpg?v=1650915734</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Al igual que la región vinícola que inspiró el nombre, Burdeos es para los que han viajado mucho y los que lo desean. Una fragancia terrosa y sensual, con notas de cítricos arraigados que se arremolinan entre flores y especias frescas. Una base de acabado musgoso, rezuma autenticidad y originalidad, y ya sea Salud o Cheers, siempre es un buen año.</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Terrosa</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Cítrico</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://patekmaison.com/cdn/shop/products/NiorTogether_900x.jpg?v=1650915506</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Escápese al oscuro y misterioso mundo de Noir, donde toda la luz es absorbida en una fragancia deslumbrante donde la luz se encuentra con la noche. Una embriagadora combinación frutal le da la bienvenida a un escape caprichoso de un campo repleto de flores, anclado por una base cálida y oscura de rica jara, almizcle y madera de cedro. Enciende las brasas, abraza el humo, encuentra espejos y saborea Noir.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Frutal</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Almizcle</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Cedro</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://patekmaison.com/cdn/shop/products/Rougetogether_1800x1800.jpg?v=1650978440</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Rouge, un seductor beso carmesí, comienza como una fantasía cítrica entrelazada con hilos de una especia poderosa y lujosa. Mezclar los acordes ahumados y amaderados con un encanto afrutado es el corazón de este sueño sensual. Asentarse con aromas dulces y terrosos hace que los sentidos se sonrojen y la anticipación persista.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Ahumado</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Amaderado</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://patekmaison.com/cdn/shop/products/Verttogether_1800x1800.jpg?v=1650915189</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Vert, una exploración verde de la frescura y profundidad de la naturaleza, utiliza la exquisitez de las hierbas especiadas entrelazadas con una explosión picante, una regularidad por excelencia. Una mezcla sólida de flores e higos completa este espectáculo selvático, rico en una rica mezcla de maderas y almizcle. Abraza lo exuberante, celebra la vida.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Selvático</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Amaderado</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Almizcle</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.9360.jpg</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 de Perry Ellis es una fragancia de la familia olfativa Floral Frutal para Mujeres. 18 se lanzó en 2006. Las Notas de Salida son mojito, frambuesa y pera; las Notas de Corazón son nenúfar (lirio de agua) y orquídea; las Notas de Fondo son sándalo y vainilla. </t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.70118.jpg</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Collection for Women de Perry Ellis es una fragancia de la familia olfativa Floral para Mujeres. 360° Collection for Women se lanzó en 2014. Las Notas de Salida son mandarina roja, fresia, flor de azahar del naranjo y Peras Anjou verdes; las Notas de Corazón son flor del duraznero (flor del melocotonero), madera de cachemira y orquídea; las Notas de Fondo son sándalo, benjuí, absoluto de vainilla y pachulí. </t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.70117.jpg</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Collection for Men de Perry Ellis es una fragancia de la familia olfativa Aromática Especiada para Hombres. 360° Collection for Men se lanzó en 2014. Las Notas de Salida son cardamomo, pimienta negra y lavanda; las Notas de Corazón son menta acuática, geranio, nuez moscada, salvia y canela; las Notas de Fondo son vainilla, almizcle, ámbar, ládano y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.70119.jpg</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Collection Noir de Perry Ellis es una fragancia de la familia olfativa Cuero para Hombres. 360° Collection Noir se lanzó en 2017. Las Notas de Salida son Agua de arroz y bergamota; las Notas de Corazón son azafrán, Lava y pimienta negra; las Notas de Fondo son Cuero negro, ámbar y notas amaderadas. </t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.53825.jpg</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Collection Rosé de Perry Ellis es una fragancia de la familia olfativa para Mujeres. 360° Collection Rosé se lanzó en 2017. Las Notas de Salida son notas marinas, pera y bergamota; las Notas de Corazón son peonía rosa, flor de azahar del naranjo, notas verdes, jazmín y violeta blanca; las Notas de Fondo son almizcle, geranio y ámbar. </t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.29247.jpg</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Coral de Perry Ellis es una fragancia de la familia olfativa Ámbar Floral para Mujeres. 360° Coral se lanzó en 2014. Las Notas de Salida son pera, bergamota, durazno (melocotón), manzana y pimienta rosa; las Notas de Corazón son peonía, jazmín y lirio de los valles (muguete); las Notas de Fondo son almizcle, madera de cachemira, haba tonka y ámbar. </t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1905.jpg</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Red de Perry Ellis es una fragancia de la familia olfativa Floral para Mujeres. 360° Red se lanzó en 2003. Las Notas de Salida son ciclamen (violeta persa), hojas de naranja y ciruela; las Notas de Corazón son flor de azahar del naranjo, orquídea, mimosa y jazmín; las Notas de Fondo son ámbar y almizcle. </t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1903.jpg</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">360° Blue for Men de Perry Ellis es una fragancia de la familia olfativa Amaderada Aromática para Hombres. 360° Blue for Men se lanzó en 1996. Las Notas de Salida son ciprés, bergamota y limón (lima ácida); las Notas de Corazón son lavanda, estragón, romero, abeto balsámico y geranio; las Notas de Fondo son sándalo, pachulí, vetiver y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.11972.jpg</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">America for Men de Perry Ellis es una fragancia de la familia olfativa Aromática Fougère para Hombres. America for Men se lanzó en 1996. Las Notas de Salida son bergamota, piña, orégano, anís y helecho; las Notas de Corazón son lavanda, vetiver, geranio, neroli y albahaca; las Notas de Fondo son sándalo, cuero, almizcle, cedro de Virginia y ámbar. </t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.14901.jpg</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aqua de Perry Ellis es una fragancia de la familia olfativa Aromática Acuática para Hombres. Aqua se lanzó en 2012. Las Notas de Salida son lima (limón verde) y bergamota; las Notas de Corazón son agua de mar, lavanda y cilantro; las Notas de Fondo son notas amaderadas, almizcle y ámbar gris. </t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.40960.jpg</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aqua Extreme de Perry Ellis es una fragancia de la familia olfativa Aromática Acuática para Hombres. Aqua Extreme se lanzó en 2016. La Nariz detrás de esta fragrancia es Jean Claude Delville. </t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.58824.jpg</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perry Ellis Bold Red de Perry Ellis es una fragancia de la familia olfativa Ámbar Especiada para Hombres. Perry Ellis Bold Red se lanzó en 2020. Las Notas de Salida son manzana roja y Cal del dedo; las Notas de Corazón son hojas verdes, flor de jengibre y pimienta negra; las Notas de Fondo son almizcle, caoba y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3912.jpg</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perry Ellis by Perry Ellis For Men de Perry Ellis es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Perry Ellis by Perry Ellis For Men se lanzó en 2008. </t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78553.jpg</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perry Ellis Midnight de Perry Ellis es una fragancia de la familia olfativa Ámbar para Hombres. Perry Ellis Midnight se lanzó en 2021. Las Notas de Salida son ámbar, canela y mandarina; las Notas de Corazón son geranio, romero y flor de azahar del naranjo; las Notas de Fondo son ámbar, vainilla y haba tonka. </t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.78457.jpg</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sky de Perry Ellis es una fragancia de la familia olfativa para Hombres. Esta fragrancia es nueva. Sky se lanzó en 2022. Las Notas de Salida son lima (limón verde), bergamota, lavanda y menta; las Notas de Corazón son notas acuosas, hojas de violeta, ládano y Madera de Pample; las Notas de Fondo son ambroxan, sándalo, pachulí y cedro de Virginia. </t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71zjXgjtdzL._SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Se siente refrescante. Es una fragancia de larga duración. Es adecuado para todo tipo de piel.</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Cítrico</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71VaI7OXN3L._SX679_.jpg</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Se siente refrescante. Es una fragancia de larga duración. Es adecuado para todo tipo de piel.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Cítrico</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Frutal</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.48682.jpg</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luna Rossa Black de Prada es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Luna Rossa Black se lanzó en 2018. La Nariz detrás de esta fragrancia es Daniela (Roche) Andrier. La Nota de Salida es bergamota; las Notas de Corazón son angélica y pachulí; las Notas de Fondo son cumarina, ámbar y almizcle. </t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.43402.jpg</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luna Rossa Carbon de Prada es una fragancia de la familia olfativa Aromática Fougère para Hombres. Luna Rossa Carbon se lanzó en 2017. La Nariz detrás de esta fragrancia es Daniela (Roche) Andrier. Las Notas de Salida son bergamota y pimienta; las Notas de Corazón son lavanda, notas metálicas, carbón, notas acuosas y tintura de tierra; las Notas de Fondo son ambroxan y pachulí. </t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.15754.jpg</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luna Rossa de Prada es una fragancia de la familia olfativa Cítrica Aromática para Hombres. Luna Rossa se lanzó en 2012. La Nariz detrás de esta fragrancia es Daniela (Roche) Andrier. Las Notas de Salida son lavanda y naranja amarga; las Notas de Corazón son menta y esclarea; las Notas de Fondo son almizcle ambreta y ambroxan. </t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.68753.jpg</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luna Rossa Ocean  de Prada es una fragancia de la familia olfativa Aromática Fougère para Hombres. Luna Rossa Ocean  se lanzó en 2021. Luna Rossa Ocean fue creada por Anne Flipo y Carlos Benaim. Las Notas de Salida son bergamota, pimienta rosa y abrótano; las Notas de Corazón son lavanda, iris, salvia, gamuza y azafrán; las Notas de Fondo son almizcle, vetiver de Haití, pachulí y caramelo. </t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.3825.jpg</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quorum de Antonio Puig es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Quorum se lanzó en 1981. Quorum fue creada por Carlos Benaim, Max Gavarry y Rosendo Mateu. Las Notas de Salida son abrótano, alcaravea, limón (lima ácida), bergamota y toronja (pomelo); las Notas de Corazón son pino, sándalo, pachulí, clavel, ciclamen (violeta persa) y jazmín; las Notas de Fondo son musgo de roble, tabaco, cuero y ámbar. </t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>musgoso</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1197.jpg</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo Black de Ralph Lauren es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Polo Black se lanzó en 2005. La Nariz detrás de esta fragrancia es Pierre Negrin. </t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1198.jpg</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo Blue de Ralph Lauren es una fragancia de la familia olfativa Aromática Fougère para Hombres. Polo Blue se lanzó en 2003. Polo Blue fue creada por Carlos Benaim y Christophe Laudamiel. Las Notas de Salida son pepino, melón y mandarina; las Notas de Corazón son albahaca, salvia y geranio; las Notas de Fondo son gamuza, notas amaderadas y almizcle. </t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>ozónico</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>acuático</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.59650.jpg</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo Deep Blue Parfum de Ralph Lauren es una fragancia de la familia olfativa Aromática Acuática para Hombres. Polo Deep Blue Parfum se lanzó en 2020. La Nariz detrás de esta fragrancia es Carlos Benaim. Las Notas de Salida son mango verde, toronja (pomelo) y bergamota; las Notas de Corazón son ciprés, esclarea y geranio; las Notas de Fondo son notas marinas, ambroxan, resina de abeto, almizcle y pachulí. </t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.890.jpg</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo de Ralph Lauren es una fragancia de la familia olfativa Amaderada Chipre para Hombres. Polo se lanzó en 1978. La Nariz detrás de esta fragrancia es Carlos Benaim. Las Notas de Salida son bayas de enebro, albahaca, abrótano, alcaravea, cilantro y bergamota; las Notas de Corazón son agujas de pino, cuero, manzanilla, pimienta, clavel, geranio, jazmín y rosa; las Notas de Fondo son tabaco, musgo de roble, pachulí, cedro, vetiver, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.61990.jpg</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo Red Eau de Parfum de Ralph Lauren es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Polo Red Eau de Parfum se lanzó en 2020. Las Notas de Salida son jengibre, arándano y toronja (pomelo) rosada; las Notas de Corazón son esclarea, ládano y lavanda; las Notas de Fondo son benjuí, opopónaco, almizcle, cedro y madera de gaiac. </t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.50714.jpg</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo Red Rush de Ralph Lauren es una fragancia de la familia olfativa Aromática Frutal para Hombres. Polo Red Rush se lanzó en 2018. Las Notas de Salida son piña, mandarina, limón (lima ácida) y toronja (pomelo); las Notas de Corazón son menta, manzana roja, flor de azahar del naranjo, azafrán y lavanda; las Notas de Fondo son almizcle, cedro y café. </t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.rlmedia.io/is/image/PoloGSI/s7-378922_lifestyle?$rl_df_pdp_5_7_lif$</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>La fragancia femenina que evoca la esencia atemporal del enamoramiento. Descubra la esencia sensual de maderas aterciopeladas, flores extravagantes y almizcle seductor.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Amaderado</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Almizcle</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.67713.jpg</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polo Sport Fresh de Ralph Lauren es una fragancia de la familia olfativa Aromática Acuática para Hombres. Polo Sport Fresh se lanzó en 2021. </t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.58758.jpg</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Day Legend de Reyane Tradition es una fragancia de la familia olfativa Chipre para Hombres. La Nariz detrás de esta fragrancia es Nejla Barbir. Las Notas de Salida son bergamota, limón (lima ácida), grosellas negras, toronja (pomelo), tomillo, manzana y piña; las Notas de Corazón son cardamomo, Petróleo de Cade, pachulí y vetiver; las Notas de Fondo son almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.58762.jpg</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insurrection II Pure Extreme de Reyane Tradition es una fragancia de la familia olfativa para Hombres. La Nariz detrás de esta fragrancia es Nejla Barbir. Las Notas de Salida son bergamota, casis (grosellero negro), tomillo, limón (lima ácida), toronja (pomelo), manzana y piña; las Notas de Corazón son vainilla, pachulí, vetiver, cardamomo y Petróleo de Cade; las Notas de Fondo son almizcle, cachemira, ámbar y cedro. </t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.30697.jpg</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insurrection II Pure de Reyane Tradition es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Insurrection II Pure se lanzó en 2013. Las Notas de Salida son piña, manzana, bergamota y casis (grosellero negro); las Notas de Corazón son abedul, pachulí y jazmín; las Notas de Fondo son almizcle, vainilla, musgo de roble y ámbar. </t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.767.jpg</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RubyLips de Salvador Dali es una fragancia de la familia olfativa Floral Frutal para Mujeres. RubyLips se lanzó en 2004. La Nariz detrás de esta fragrancia es Daphné Bugey. Las Notas de Salida son grosella roja, yuzu y manzana; las Notas de Corazón son rosa, orquídea y nenúfar (lirio de agua); las Notas de Fondo son pachulí, sándalo, miel y limonero (limero). </t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17089.jpg</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acqua Essenziale de Salvatore Ferragamo es una fragancia de la familia olfativa Aromática Fougère para Hombres. Acqua Essenziale se lanzó en 2013. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son menta y hojas del limonero; las Notas de Corazón son notas marinas, lavanda, geranio y romero; las Notas de Fondo son vetiver, almizcle, ládano y pachulí. </t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>marino</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.13639.jpg</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Signorina de Salvatore Ferragamo es una fragancia de la familia olfativa Floral Frutal para Mujeres. Signorina se lanzó en 2011. Signorina fue creada por Sophie Labbe y Juliette Karagueuzoglou. Las Notas de Salida son pimienta rosa y grosellas negras; las Notas de Corazón son rosa, peonía y jazmín; las Notas de Fondo son panacota, almizcle y pachulí. </t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>especiado suave</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.46058.jpg</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dance Diamonds (Under The Rain) de Shakira es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Dance Diamonds (Under The Rain) se lanzó en 2017. Las Notas de Salida son bergamota, pimienta rosa y frambuesa; las Notas de Corazón son hojas de violeta, flor de azahar del naranjo, fresia y peonía; las Notas de Fondo son almizcle, sándalo y ámbar. </t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.49601.jpg</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dream de Shakira es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Dream se lanzó en 2018. Las Notas de Salida son naranja sanguina y pimienta rosa; las Notas de Corazón son caramelo y rosa; las Notas de Fondo son vainilla y almizcle. </t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>caramelo</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.tequilaperfumes.com/img/products/cosmetic/5.jpg</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Los perfumes a menudo se diseñan con notas altas, medias y bajas, y están diseñados para oler diferente según el tiempo posterior a la aplicación. Por ejemplo, algunos aromas cítricos de notas altas huelen más fuerte inmediatamente después de la aplicación, mientras que una nota media de lavanda se puede sentir después de un tiempo desde la aplicación a medida que la nota alta se evapora.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Cítrico</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.shopzote.com/wp-content/uploads/2023/05/tequila_gold_pour_homme_eau_de_parfum_100_ml_spray_108211.jpg</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Tequila Gold para hombres, con un aroma firme de pomelo, limón y acorde ozónico, la fragancia tiene algunos aceites esenciales exclusivos de pachulí, Ámbar, sándalo, madera de guayaco, vetiver, musgo de roble, vainilla, almizcle, haba simbólica y bálsamo. Para hacer que la fragancia sea delicada para la piel, hemos agregado romero, violeta, cardamomo, un toque de pimienta.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Vainilla</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Roble</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Almizcle</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://tequilaperfumes.com/img/products/cosmetic/4.jpg</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Una de nuestras mejores mezclas de bergamota picante que allana el camino para la piña dulce, el melón y el cassis, envueltos aún más por la unidad del cardamomo picante y la albahaca y abrazados por el sándalo y el pachulí terroso y el musgo de roble para darle riqueza y profundidad.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Sándalo</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Pachulí</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Roble</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://tequilaperfumes.com/img/products/cosmetic/6.jpg</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Los perfumes a menudo se diseñan con notas altas, medias y bajas, y están diseñados para oler diferente según el tiempo posterior a la aplicación. Por ejemplo, algunos aromas cítricos de notas altas huelen más fuerte inmediatamente después de la aplicación, mientras que una nota media de lavanda se puede sentir después de un tiempo desde la aplicación a medida que la nota alta se evapora.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Cítrico</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Lavanda</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Roble</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://tequilaperfumes.com/img/products/cosmetic/2.jpg</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Con un toque de limón y una pizca de delicadas fragancias como neroli, deliciosa rosa, cardamomo picante y relajante jazmín, nuestro Tequila Oud tiene una mezcla de cálidas fragancias de sándalo, almizcle y tierra como pachulí.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Neroli</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Jazmín</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://tequilaperfumes.com/img/products/cosmetic/3.jpg</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Con la frescura del limón y la naranja, la rica fragancia de ciruela negra y pera dulce se envuelve en deliciosas flores blancas para hacer que el aroma sea electrizante. Una mezcla de vainilla cremosa, sándalo espirituoso y ámbar sensual hace que la fragancia sea fascinante y vigorizante.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Electrizante</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Vainilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://cdn11.bigcommerce.com/s-l1iscz9y2e/images/stencil/1280x1280/products/17049/22716853/s-l1600-X2__80630.1692034852.png?c=2</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Esta colonia única y fragante funde notas únicas y complejas construidas sobre una base amaderada que es seductora, cálida y acogedora. Se abre con una explosión fresca de bergamota vigorizante y mirto especiado. La energía es domada por un corazón irresistible de café tostado y crema de gianduja. Mientras los sentidos giran con entusiasmo por lo que viene a continuación, el cedro y el cuero brindan un acabado satisfactorio.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Gianduja</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Cedro</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.707.jpg</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alien de Mugler es una fragancia de la familia olfativa Ámbar Amaderada para Mujeres. Alien se lanzó en 2005. Alien fue creada por Dominique Ropion y Laurent Bruyere. La Nota de Salida es jazmín sambac (sampaguita); la Nota de Corazón es cachemira; la Nota de Fondo es ámbar. </t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.46513.jpg</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fucking Fabulous de Tom Ford es una fragancia de la familia olfativa Cuero para Hombres y Mujeres. Fucking Fabulous se lanzó en 2017. Las Notas de Salida son lavanda y esclarea; las Notas de Corazón son cuero, almendra amarga, vainilla y raíz de lirio; las Notas de Fondo son cuero, haba tonka, cachemira, maderas blancas y ámbar. </t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1822.jpg</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noir de Noir de Tom Ford es una fragancia de la familia olfativa Chipre para Hombres y Mujeres. Noir de Noir se lanzó en 2007. Noir de Noir fue creada por Jacques Cavallier, Harry Fremont y Olivier Cresp. La Nota de Salida es azafrán; las Notas de Corazón son rosa negra, trufa y notas florales; las Notas de Fondo son pachulí, vainilla, madera de oud y musgo de roble. </t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>terrosos</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>pachulí</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1826.jpg</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oud Wood de Tom Ford es una fragancia de la familia olfativa Ámbar Amaderada para Hombres y Mujeres. Oud Wood se lanzó en 2007. La Nariz detrás de esta fragrancia es Richard Herpin. </t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>oud</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.48029.jpg</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanille Fatale de Tom Ford es una fragancia de la familia olfativa Ámbar Vainilla para Hombres y Mujeres. Vanille Fatale se lanzó en 2017. La Nariz detrás de esta fragrancia es Yann Vasnier. Las Notas de Salida son ron, mirra, incienso de olíbano (franquincienso), azafrán, cilantro, naranja y lima (limón verde); las Notas de Corazón son cebada (malta), café, ciruela, frangipani (plumeria, plumaria, atapaima), narciso, abrótano y rosa; las Notas de Fondo son vainilla de Madagascar, gamuza, tabaco, caoba, pachulí, musgo de roble y violeta. </t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2732.jpg</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baby de Tous es una fragancia de la familia olfativa Floral Frutal para Hombres y Mujeres. Baby se lanzó en 2007. Baby fue creada por Shyamala Maisondieu y Michel Girard. Las Notas de Salida son neroli, mandarina y bergamota; las Notas de Corazón son pera, manzana, flor de azahar del naranjo y rosa; las Notas de Fondo son almizcle, petit grain y cedro. </t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.31411.jpg</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valentino Donna de Valentino es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Valentino Donna se lanzó en 2015. Valentino Donna fue creada por Sonia Constant y Antoine Maisondieu. Las Notas de Salida son bergamota y toronja (pomelo); las Notas de Corazón son iris, rosa de Bulgaria (rosa Damascena de Bulgaria) y praliné; las Notas de Fondo son vainilla, cuero y pachulí. </t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>iris</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>rosas</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.68560.jpg</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voce Viva Intensa de Valentino es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Voce Viva Intensa se lanzó en 2021. Las Notas de Salida son mandarina y bergamota; las Notas de Corazón son flor de azahar del naranjo y jazmín sambac (sampaguita); las Notas de Fondo son vainilla Bourbon y musgo. </t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.632.jpg</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bright Crystal de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Bright Crystal se lanzó en 2006. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son yuzu, granada y Hielo; las Notas de Corazón son peonía, flor de loto y magnolia; las Notas de Fondo son almizcle, caoba y ámbar. </t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.21547.jpg</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bright Crystal Absolu de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Bright Crystal Absolu se lanzó en 2013. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son granada, yuzu y notas acuáticas; las Notas de Corazón son peonía, frambuesa, flor de loto y magnolia; las Notas de Fondo son almizcle, caoba y ámbar. </t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.21547.jpg</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bright Crystal Absolu de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Bright Crystal Absolu se lanzó en 2013. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son granada, yuzu y notas acuáticas; las Notas de Corazón son peonía, frambuesa, flor de loto y magnolia; las Notas de Fondo son almizcle, caoba y ámbar. </t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.632.jpg</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bright Crystal de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Bright Crystal se lanzó en 2006. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son yuzu, granada y Hielo; las Notas de Corazón son peonía, flor de loto y magnolia; las Notas de Fondo son almizcle, caoba y ámbar. </t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.632.jpg</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bright Crystal de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Bright Crystal se lanzó en 2006. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son yuzu, granada y Hielo; las Notas de Corazón son peonía, flor de loto y magnolia; las Notas de Fondo son almizcle, caoba y ámbar. </t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.631.jpg</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal Noir de Versace es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Crystal Noir se lanzó en 2004. La Nariz detrás de esta fragrancia es Antoine Lie. Las Notas de Salida son pimienta, jengibre y cardamomo; las Notas de Corazón son coco, gardenia, flor de azahar del naranjo y peonía; las Notas de Fondo son sándalo, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>coco</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.40031.jpg</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Pour Homme Dylan Blue de Versace es una fragancia de la familia olfativa Aromática Fougère para Hombres. Versace Pour Homme Dylan Blue se lanzó en 2016. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son bergamota de Calabria, notas acuáticas, toronja (pomelo) y hojas de higuera; las Notas de Corazón son ambroxan, pimienta negra, pachulí, hojas de violeta y papiro de Egipto; las Notas de Fondo son incienso, almizcle, haba tonka y azafrán. </t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.62966.jpg</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Pour Femme Dylan Turquoise de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Versace Pour Femme Dylan Turquoise se lanzó en 2020. La Nariz detrás de esta fragrancia es Sophie Labbe. Las Notas de Salida son limón (lima ácida), mandarina y pimienta rosa; las Notas de Corazón son guayaba, fresia, casis (grosellero negro) y jazmín; las Notas de Fondo son Clearwood, almizcle y cedro. </t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.644.jpg</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Man Eau Fraiche de Versace es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Versace Man Eau Fraiche se lanzó en 2006. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son limón (lima ácida), bergamota, carambola, cardamomo y palo de rosa de Brasil; las Notas de Corazón son cedro, estragón, salvia y pimienta; las Notas de Fondo son almizcle, notas amaderadas, azafrán, ámbar y madera de sicómoro. </t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.644.jpg</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Man Eau Fraiche de Versace es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Versace Man Eau Fraiche se lanzó en 2006. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son limón (lima ácida), bergamota, carambola, cardamomo y palo de rosa de Brasil; las Notas de Corazón son cedro, estragón, salvia y pimienta; las Notas de Fondo son almizcle, notas amaderadas, azafrán, ámbar y madera de sicómoro. </t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.644.jpg</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Man Eau Fraiche de Versace es una fragancia de la familia olfativa Amaderada Acuática para Hombres. Versace Man Eau Fraiche se lanzó en 2006. La Nariz detrás de esta fragrancia es Olivier Cresp. Las Notas de Salida son limón (lima ácida), bergamota, carambola, cardamomo y palo de rosa de Brasil; las Notas de Corazón son cedro, estragón, salvia y pimienta; las Notas de Fondo son almizcle, notas amaderadas, azafrán, ámbar y madera de sicómoro. </t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.17338.jpg</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Pour Homme Oud Noir de Versace es una fragancia de la familia olfativa Ámbar Amaderada para Hombres. Versace Pour Homme Oud Noir se lanzó en 2013. Las Notas de Salida son pimienta negra, naranja amarga y neroli; las Notas de Corazón son azafrán, cardamomo y incienso de olíbano (franquincienso); las Notas de Fondo son madera de oud, pachulí y Leatherwood. </t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>oud</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2318.jpg</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Pour Homme de Versace es una fragancia de la familia olfativa Aromática Fougère para Hombres. Versace Pour Homme se lanzó en 2008. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son limón (lima ácida), bergamota, neroli y rosa de Mai; las Notas de Corazón son jacinto, cedro, esclarea y geranio; las Notas de Fondo son haba tonka, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2318.jpg</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Pour Homme de Versace es una fragancia de la familia olfativa Aromática Fougère para Hombres. Versace Pour Homme se lanzó en 2008. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son limón (lima ácida), bergamota, neroli y rosa de Mai; las Notas de Corazón son jacinto, cedro, esclarea y geranio; las Notas de Fondo son haba tonka, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.2318.jpg</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Versace Pour Homme de Versace es una fragancia de la familia olfativa Aromática Fougère para Hombres. Versace Pour Homme se lanzó en 2008. La Nariz detrás de esta fragrancia es Alberto Morillas. Las Notas de Salida son limón (lima ácida), bergamota, neroli y rosa de Mai; las Notas de Corazón son jacinto, cedro, esclarea y geranio; las Notas de Fondo son haba tonka, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.638.jpg</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Red Jeans de Versace es una fragancia de la familia olfativa Floral Frutal para Mujeres. Red Jeans se lanzó en 1994. La Nariz detrás de esta fragrancia es Jean-Pierre Bethouart. Las Notas de Salida son durazno (melocotón), chabacano, fresia y grosellas negras; las Notas de Corazón son rosa, violeta, lirio de los valles (muguete), nenúfar (lirio de agua) y ylang-ylang; las Notas de Fondo son almizcle, vainilla y sándalo. </t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.13064.jpg</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yellow Diamond de Versace es una fragancia de la familia olfativa Floral para Mujeres. Yellow Diamond se lanzó en 2011. Las Notas de Salida son limón de Amalfi (lima de Amalfi), pera, bergamota y neroli; las Notas de Corazón son mimosa, fresia, nenúfar (lirio de agua) y flor del naranjo africano; las Notas de Fondo son almizcle, madera de gaiac y ámbar. </t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Floral amarillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.6673.jpg</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swiss Army Altitude de Victorinox Swiss Army es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Swiss Army Altitude se lanzó en 2001. Las Notas de Salida son bayas de enebro, cedro de Virginia y cilantro; las Notas de Corazón son menta, salvia y gálbano; las Notas de Fondo son notas amaderadas y almizcle. </t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.76884.jpg</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black Steel de Victorinox Swiss Army es una fragancia de la familia olfativa Cuero para Hombres. Black Steel se lanzó en 2020. La Nariz detrás de esta fragrancia es Daphné Bugey. Las Notas de Salida son jengibre y pimienta negra; las Notas de Corazón son cuero y alerce europeo; las Notas de Fondo son almendra y pino. </t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>cuero</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.6672.jpg</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swiss Army de Victorinox Swiss Army es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Swiss Army se lanzó en 1997. Las Notas de Salida son menta, notas verdes, bergamota, yuzu y jengibre; las Notas de Corazón son lavanda, romero, hojas de violeta, flor de las nieves (flor de edelweiss) y geranio; las Notas de Fondo son ciprés, abeto balsámico, cedro, almizcle y ámbar. </t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.72269.jpg</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First Snow de Victorinox Swiss Army es una fragancia de la familia olfativa Floral Verde para Mujeres. First Snow se lanzó en 2021. La Nariz detrás de esta fragrancia es Ane Ayo. Las Notas de Salida son té Blanco y eucalipto; las Notas de Corazón son flor de azahar del naranjo y vainilla; las Notas de Fondo son haba tonka y almizcle blanco. </t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>amaderado</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>alcanforados</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://imageengine.victorinox.com/mediahub/187165/560Wx490H/FRA_V0001247_S1.jpg</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Combina de manera experta notas altas de bayas silvestres picantes con un corazón de lavanda reconstituyente y una base de esencia de incienso ahumada y conmovedora.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Lavanda</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Energizante</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Ahumado</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://expoperfumes.com/cdn/shop/products/HSWIASP_600x.jpg?v=1631300776</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Las Notas de Salida son manzana verde, yuzu y cilantro; las Notas de Corazón son cedro, romero y lavanda; las Notas de Fondo son almizcle y ámbar blanco.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Cedro</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.58956.jpg</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flowerbomb Dew de Viktor&amp;Rolf es una fragancia de la familia olfativa Floral para Mujeres. Flowerbomb Dew se lanzó en 2020. Las Notas de Salida son almizcle ambreta, pera, Gota del rocío y bergamota; las Notas de Corazón son iris y rosa; las Notas de Fondo son almizcle blanco, cachemira y heliotropo. </t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>iris</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.1460.jpg</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Flowerbomb de Viktor&amp;Rolf es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Flowerbomb se lanzó en 2005. Flowerbomb fue creada por Olivier Polge, Carlos Benaim, Domitille Michalon Bertier y Dominique Ropion. Las Notas de Salida son té, bergamota y osmanto (olivo oloroso); las Notas de Corazón son orquídea, jazmín, rosa, fresia y flor del naranjo africano; las Notas de Fondo son pachulí, almizcle y vainilla. Este perfume es el ganador del premio FiFi Award Best National Advertising Campaign / Print 2006.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>florales</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>pachulí</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.48062.jpg</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flowerbomb Nectar de Viktor&amp;Rolf es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Flowerbomb Nectar se lanzó en 2018. Flowerbomb Nectar fue creada por Domitille Michalon Bertier, Olivier Polge, Dominique Ropion y Carlos Benaim. Las Notas de Salida son pólvora, casis (grosellero negro) y bergamota; las Notas de Corazón son osmanto (olivo oloroso), flor de azahar del naranjo y jazmín sambac (sampaguita); las Notas de Fondo son vainilla, haba tonka, benjuí y pachulí. </t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>ámbar</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.70984.jpg</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flowerbomb Ruby Orchid de Viktor&amp;Rolf es una fragancia de la familia olfativa Floral Frutal Gourmand para Mujeres. Flowerbomb Ruby Orchid se lanzó en 2021. La Nariz detrás de esta fragrancia es Domitille Michalon Bertier. Las Notas de Salida son durazno (melocotón) y vid; la Nota de Corazón es orquídea; la Nota de Fondo es vaina de vainilla. </t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>atalcado</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.74194.jpg</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Fortune de Viktor&amp;Rolf es una fragancia de la familia olfativa Ámbar Floral para Mujeres. Esta fragrancia es nueva. Good Fortune se lanzó en 2022. Good Fortune fue creada por Nicolas Beaulieu y Anne Flipo. Las Notas de Salida son hinojo y genciana; la Nota de Corazón es jazmín; la Nota de Fondo es vainilla de Madagascar. </t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>floral blanco</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>especiado suave</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.13857.jpg</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spicebomb de Viktor&amp;Rolf es una fragancia de la familia olfativa Amaderada Especiada para Hombres. Spicebomb se lanzó en 2012. La Nariz detrás de esta fragrancia es Olivier Polge. Las Notas de Salida son pimienta rosa, elemí, bergamota y toronja (pomelo); las Notas de Corazón son canela, azafrán y pimentón dulce (paprika); las Notas de Fondo son tabaco, cuero y vetiver. </t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.30499.jpg</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spicebomb Extreme de Viktor&amp;Rolf es una fragancia de la familia olfativa Ámbar Especiada para Hombres. Spicebomb Extreme se lanzó en 2015. Spicebomb Extreme fue creada por Carlos Benaim y Jean-Christophe Hérault. </t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.66514.jpg</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spicebomb Infrared de Viktor&amp;Rolf es una fragancia de la familia olfativa Ámbar Especiada para Hombres. Spicebomb Infrared se lanzó en 2021. Las Notas de Salida son Frutas rojas, pimienta rosa y azafrán; las Notas de Corazón son canela y chile rojo (ají rojo); las Notas de Fondo son tabaco y benjuí. </t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>canela</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>tabaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.53344.jpg</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spicebomb Night Vision Eau de Toilette de Viktor&amp;Rolf es una fragancia de la familia olfativa Ámbar Fougère para Hombres. Spicebomb Night Vision Eau de Toilette se lanzó en 2019. Spicebomb Night Vision Eau de Toilette fue creada por Nathalie Lorson y Pierre Negrin. Las Notas de Salida son manzana Granny Smith, mandarina verde, cardamomo y toronja (pomelo); las Notas de Corazón son pimienta, salvia, nuez moscada, chile rojo (ají rojo), clavo de olor y geranio; las Notas de Fondo son haba tonka, notas amaderadas y almendra. </t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>fresco especiado</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.45956.jpg</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Saint Laurent Y de Yves Saint Laurent es una fragancia de la familia olfativa Amaderada Aromática para Hombres. Yves Saint Laurent Y se lanzó en 2017. La Nariz detrás de esta fragrancia es Dominique Ropion. Las Notas de Salida son aldehídos, bergamota, jengibre, menta y limón (lima ácida); las Notas de Corazón son manzana, hojas de violeta, piña, salvia y geranio; las Notas de Fondo son ámbar gris, almizcle, cedro, abeto balsámico, vetiver y incienso. </t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.52924.jpg</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black Opium Intense de Yves Saint Laurent es una fragancia de la familia olfativa Ámbar Vainilla para Mujeres. Black Opium Intense se lanzó en 2019. Black Opium Intense fue creada por Nathalie Lorson, Olivier Cresp, Marie Salamagne y Honorine Blanc. Las Notas de Salida son absenta y baya de Boysen; las Notas de Corazón son café, jazmín sambac (sampaguita) y flor de azahar del naranjo; las Notas de Fondo son vainilla, regaliz y sándalo. </t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>café</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>avainillado</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.735.jpg</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kouros de Yves Saint Laurent es una fragancia de la familia olfativa Aromática Fougère para Hombres. Kouros se lanzó en 1981. La Nariz detrás de esta fragrancia es Pierre Bourdon. Las Notas de Salida son aldehídos, cilantro, esclarea, abrótano y bergamota; las Notas de Corazón son pachulí, clavel, vetiver, geranio, canela, jazmín y raíz de lirio; las Notas de Fondo son algalia (civet), miel, cuero, almizcle, musgo de roble, ámbar, haba tonka y vainilla. </t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>almizclado</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>animálico</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.734.jpg</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Homme de Yves Saint Laurent es una fragancia de la familia olfativa Almizcle Amaderado Floral para Hombres. L'Homme se lanzó en 2006. L'Homme fue creada por Anne Flipo, Pierre Wargnye, Dominique Ropion y Juliette Karagueuzoglou. Las Notas de Salida son jengibre, bergamota y limón (lima ácida); las Notas de Corazón son especias, hojas de violeta, pimienta blanca y albahaca; las Notas de Fondo son haba tonka, cedro y vetiver de Tahití. </t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>cítrico</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.5521.jpg</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Nuit de l'Homme de Yves Saint Laurent es una fragancia de la familia olfativa Amaderada Especiada para Hombres. La Nuit de l'Homme se lanzó en 2009. La Nuit de l'Homme fue creada por Anne Flipo, Pierre Wargnye y Dominique Ropion. La Nota de Salida es cardamomo; las Notas de Corazón son lavanda, cedro de Virginia y bergamota; las Notas de Fondo son vetiver y alcaravea. </t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>aromático</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>cálido especiado</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>lavanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://fraguru.com/mdimg/perfume/375x500.38914.jpg</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon Paris de Yves Saint Laurent es una fragancia de la familia olfativa Chipre Frutal para Mujeres. Mon Paris se lanzó en 2016. Mon Paris fue creada por Olivier Cresp, Harry Fremont y Dora Baghriche. Las Notas de Salida son fresa, frambuesa, pera, naranja, naranja tangerina, bergamota de Calabria y calone; las Notas de Corazón son peonía, jazmín sambac (sampaguita), jazmín chino, datura y flor de azahar del naranjo; las Notas de Fondo son hojas de pachulí de Indonesia, pachulí, almizcle blanco, vainilla, ambroxan, musgo y cedro. </t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>afrutados</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>dulce</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>fresco</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
